--- a/car_data.xlsx
+++ b/car_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E311"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,30 +421,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Impreza 1.6</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1998</v>
+      </c>
+      <c r="C2" t="str">
+        <v>198.000 Km</v>
       </c>
       <c r="D2" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E2" t="str">
-        <v>64.000.000</v>
+        <v>18.800.000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Subaru Forester 2.0 I-l</v>
+        <v>Subaru Xv 20i 2.0 4x4</v>
       </c>
       <c r="B3" t="str">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C3" t="str">
-        <v>86.900 Km</v>
+        <v>140.000 Km</v>
       </c>
       <c r="D3" t="str">
-        <v>Medellín - Antioquia</v>
+        <v>Fontibón - Bogotá D.C.</v>
       </c>
       <c r="E3" t="str">
-        <v>77.000.000</v>
+        <v>65.000.000</v>
       </c>
     </row>
     <row r="4">
@@ -452,611 +458,611 @@
         <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B4" t="str">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C4" t="str">
-        <v>50.000 Km</v>
+        <v>92.272 Km</v>
       </c>
       <c r="D4" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Fontibón - Bogotá D.C.</v>
       </c>
       <c r="E4" t="str">
-        <v>97.000.000</v>
+        <v>74.000.000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Subaru Xv 2.0 I Sport</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B5" t="str">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C5" t="str">
-        <v>73.000 Km</v>
+        <v>86.900 Km</v>
       </c>
       <c r="D5" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E5" t="str">
-        <v>109.900.000</v>
+        <v>64.000.000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Subaru Xv Limited Eyesight</v>
+        <v>Subaru Forester 2.0 I-l</v>
       </c>
       <c r="B6" t="str">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C6" t="str">
-        <v>46.000 Km</v>
+        <v>50.000 Km</v>
       </c>
       <c r="D6" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Medellín - Antioquia</v>
       </c>
       <c r="E6" t="str">
-        <v>113.500.000</v>
+        <v>77.000.000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Subaru Impreza 1.5</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B7" t="str">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C7" t="str">
-        <v>44.700 Km</v>
+        <v>73.000 Km</v>
       </c>
       <c r="D7" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E7" t="str">
-        <v>31.500.000</v>
+        <v>97.000.000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Subaru Forester 2.5 Awd Xs</v>
+        <v>Subaru Xv 2.0 I Sport</v>
       </c>
       <c r="B8" t="str">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="C8" t="str">
-        <v>163.000 Km</v>
+        <v>46.000 Km</v>
       </c>
       <c r="D8" t="str">
-        <v>La Estrella - Antioquia</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E8" t="str">
-        <v>38.000.000</v>
+        <v>109.900.000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Subaru Xv 2.0 Limited Eyesihgt</v>
+        <v>Subaru Xv Limited Eyesight</v>
       </c>
       <c r="B9" t="str">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="C9" t="str">
-        <v>213.368 Km</v>
+        <v>44.700 Km</v>
       </c>
       <c r="D9" t="str">
-        <v>Puente Aranda - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E9" t="str">
-        <v>96.000.000</v>
+        <v>113.500.000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Subaru Xv 2.0 L</v>
+        <v>Subaru Impreza 1.5</v>
       </c>
       <c r="B10" t="str">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="C10" t="str">
-        <v>69.000 Km</v>
+        <v>163.000 Km</v>
       </c>
       <c r="D10" t="str">
-        <v>Kennedy - Bogotá D.C.</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E10" t="str">
-        <v>156.000.000</v>
+        <v>31.500.000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Subaru Impreza 2.0r Awd Gh</v>
+        <v>Subaru Forester 2.5 Awd Xs</v>
       </c>
       <c r="B11" t="str">
-        <v>2022</v>
+        <v>2005</v>
       </c>
       <c r="C11" t="str">
-        <v>15.000 Km</v>
+        <v>213.368 Km</v>
       </c>
       <c r="D11" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>La Estrella - Antioquia</v>
       </c>
       <c r="E11" t="str">
-        <v>33.000.000</v>
+        <v>38.000.000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Subaru Forester 2.5 Turbo At</v>
+        <v>Subaru Xv 2.0 Limited Eyesihgt</v>
       </c>
       <c r="B12" t="str">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="C12" t="str">
-        <v>130.464 Km</v>
+        <v>69.000 Km</v>
       </c>
       <c r="D12" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Puente Aranda - Bogotá D.C.</v>
       </c>
       <c r="E12" t="str">
-        <v>53.000.000</v>
+        <v>96.000.000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Subaru Evoltis 2.4t Limited</v>
+        <v>Subaru Vivio 0.6 Lxi</v>
       </c>
       <c r="B13" t="str">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C13" t="str">
-        <v>113.500 Km</v>
+        <v>77.000 Km</v>
       </c>
       <c r="D13" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E13" t="str">
-        <v>169.000.000</v>
+        <v>14.000.000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Subaru Xv 2.0 Dynamic</v>
+        <v>Subaru Forester 2.5 Turbo At</v>
       </c>
       <c r="B14" t="str">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="str">
-        <v>20.000 Km</v>
+        <v>113.500 Km</v>
       </c>
       <c r="D14" t="str">
         <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E14" t="str">
-        <v>92.000.000</v>
+        <v>53.000.000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Subaru Xv 2.0i-s Cvt Dynamic</v>
+        <v>Subaru Evoltis 2.4t Limited</v>
       </c>
       <c r="B15" t="str">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C15" t="str">
-        <v>46.500 Km</v>
+        <v>20.000 Km</v>
       </c>
       <c r="D15" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E15" t="str">
-        <v>99.500.000</v>
+        <v>169.000.000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Subaru Tribeca 3.6l Awd</v>
+        <v>Subaru Xv 2.0 Dynamic</v>
       </c>
       <c r="B16" t="str">
         <v>2018</v>
       </c>
       <c r="C16" t="str">
-        <v>43.000 Km</v>
+        <v>46.500 Km</v>
       </c>
       <c r="D16" t="str">
         <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E16" t="str">
-        <v>68.700.000</v>
+        <v>92.000.000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Subaru Xv Limited</v>
+        <v>Subaru Xv 2.0i-s Cvt Dynamic</v>
       </c>
       <c r="B17" t="str">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C17" t="str">
-        <v>100.000 Km</v>
+        <v>43.000 Km</v>
       </c>
       <c r="D17" t="str">
-        <v>Martires - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E17" t="str">
-        <v>98.000.000</v>
+        <v>99.500.000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Subaru Impreza 2.0 Xv Awd Gp</v>
+        <v>Subaru Tribeca 3.6l Awd</v>
       </c>
       <c r="B18" t="str">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="C18" t="str">
-        <v>15.150 Km</v>
+        <v>100.000 Km</v>
       </c>
       <c r="D18" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E18" t="str">
-        <v>67.500.000</v>
+        <v>68.700.000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Subaru Forester Dynamique 2.0</v>
+        <v>Subaru Xv Limited</v>
       </c>
       <c r="B19" t="str">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C19" t="str">
-        <v>108.000 Km</v>
+        <v>15.150 Km</v>
       </c>
       <c r="D19" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Martires - Bogotá D.C.</v>
       </c>
       <c r="E19" t="str">
-        <v>110.000.000</v>
+        <v>98.000.000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Impreza 2.0 Xv Awd Gp</v>
       </c>
       <c r="B20" t="str">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C20" t="str">
-        <v>59.000 Km</v>
+        <v>108.000 Km</v>
       </c>
       <c r="D20" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E20" t="str">
-        <v>107.000.000</v>
+        <v>67.500.000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Subaru Outback 2.5i Awd</v>
+        <v>Subaru Forester Dynamique 2.0</v>
       </c>
       <c r="B21" t="str">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C21" t="str">
-        <v>30.000 Km</v>
+        <v>59.000 Km</v>
       </c>
       <c r="D21" t="str">
         <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E21" t="str">
-        <v>56.500.000</v>
+        <v>110.000.000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B22" t="str">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C22" t="str">
-        <v>77.000 Km</v>
+        <v>30.000 Km</v>
       </c>
       <c r="D22" t="str">
-        <v>Fontibón - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E22" t="str">
-        <v>112.000.000</v>
+        <v>107.000.000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Subaru Forester Dynamic</v>
+        <v>Subaru Outback 2.5i Awd</v>
       </c>
       <c r="B23" t="str">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C23" t="str">
-        <v>65.000 Km</v>
+        <v>77.000 Km</v>
       </c>
       <c r="D23" t="str">
         <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E23" t="str">
-        <v>98.000.000</v>
+        <v>56.500.000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Subaru Tribeca 3.0 B9 4x4</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B24" t="str">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C24" t="str">
-        <v>116.000 Km</v>
+        <v>65.000 Km</v>
       </c>
       <c r="D24" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Fontibón - Bogotá D.C.</v>
       </c>
       <c r="E24" t="str">
-        <v>58.900.000</v>
+        <v>112.000.000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Subaru Xv 2.01 Cvt 4x4</v>
+        <v>Subaru Forester Dynamic</v>
       </c>
       <c r="B25" t="str">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="C25" t="str">
-        <v>56.000 Km</v>
+        <v>116.000 Km</v>
       </c>
       <c r="D25" t="str">
-        <v>Kennedy - Bogotá D.C.</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E25" t="str">
-        <v>115.000.000</v>
+        <v>98.000.000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Subaru Legacy 2.0l Cvt Awd</v>
+        <v>Subaru Tribeca 3.0 B9 4x4</v>
       </c>
       <c r="B26" t="str">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="C26" t="str">
-        <v>18.000 Km</v>
+        <v>56.000 Km</v>
       </c>
       <c r="D26" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E26" t="str">
-        <v>47.000.000</v>
+        <v>58.900.000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Subaru Forester 2.5 Awd Xs</v>
+        <v>Subaru Xv 2.01 Cvt 4x4</v>
       </c>
       <c r="B27" t="str">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="C27" t="str">
-        <v>123.200 Km</v>
+        <v>18.000 Km</v>
       </c>
       <c r="D27" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Kennedy - Bogotá D.C.</v>
       </c>
       <c r="E27" t="str">
-        <v>42.000.000</v>
+        <v>115.000.000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Subaru Xv Sport</v>
+        <v>Subaru Impreza 1.5r Awd Gh</v>
       </c>
       <c r="B28" t="str">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C28" t="str">
-        <v>211.000 Km</v>
+        <v>130.000 Km</v>
       </c>
       <c r="D28" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Fontibón - Bogotá D.C.</v>
       </c>
       <c r="E28" t="str">
-        <v>124.900.000</v>
+        <v>36.000.000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Subaru Forester 2.5 Awd Xs</v>
+        <v>Subaru Legacy 2.0l Cvt Awd</v>
       </c>
       <c r="B29" t="str">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="C29" t="str">
-        <v>19.500 Km</v>
+        <v>123.200 Km</v>
       </c>
       <c r="D29" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E29" t="str">
-        <v>49.000.000</v>
+        <v>47.000.000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Subaru Impreza 1.6 Gf</v>
+        <v>Subaru Forester 2.5 Awd Xs</v>
       </c>
       <c r="B30" t="str">
         <v>2008</v>
       </c>
       <c r="C30" t="str">
-        <v>149.900 Km</v>
+        <v>211.000 Km</v>
       </c>
       <c r="D30" t="str">
-        <v>Kennedy - Bogotá D.C.</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E30" t="str">
-        <v>21.000.000</v>
+        <v>42.000.000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Xv Sport</v>
       </c>
       <c r="B31" t="str">
-        <v>1996</v>
+        <v>2021</v>
       </c>
       <c r="C31" t="str">
-        <v>151.000 Km</v>
+        <v>19.500 Km</v>
       </c>
       <c r="D31" t="str">
-        <v>Facatativá - Cundinamarca</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E31" t="str">
-        <v>68.900.000</v>
+        <v>124.900.000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Subaru Forester Oa</v>
+        <v>Subaru Forester 2.5 Awd Xs</v>
       </c>
       <c r="B32" t="str">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C32" t="str">
-        <v>114.395 Km</v>
+        <v>149.900 Km</v>
       </c>
       <c r="D32" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E32" t="str">
-        <v>43.000.000</v>
+        <v>49.000.000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Subaru Outback 2.5i Awd</v>
+        <v>Subaru Impreza 1.6 Gf</v>
       </c>
       <c r="B33" t="str">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C33" t="str">
-        <v>138.900 Km</v>
+        <v>151.000 Km</v>
       </c>
       <c r="D33" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Kennedy - Bogotá D.C.</v>
       </c>
       <c r="E33" t="str">
-        <v>57.000.000</v>
+        <v>21.000.000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B34" t="str">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C34" t="str">
-        <v>125.000 Km</v>
+        <v>114.395 Km</v>
       </c>
       <c r="D34" t="str">
-        <v>Fontibón - Bogotá D.C.</v>
+        <v>Facatativá - Cundinamarca</v>
       </c>
       <c r="E34" t="str">
-        <v>114.000.000</v>
+        <v>68.900.000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Forester Oa</v>
       </c>
       <c r="B35" t="str">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="C35" t="str">
-        <v>36.500 Km</v>
+        <v>138.900 Km</v>
       </c>
       <c r="D35" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E35" t="str">
-        <v>187.900.000</v>
+        <v>43.000.000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Outback 2.5i Awd</v>
       </c>
       <c r="B36" t="str">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C36" t="str">
-        <v>17.600 Km</v>
+        <v>125.000 Km</v>
       </c>
       <c r="D36" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E36" t="str">
-        <v>106.900.000</v>
+        <v>57.000.000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.0 Cvt</v>
       </c>
       <c r="B37" t="str">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C37" t="str">
-        <v>26.950 Km</v>
+        <v>103.159 Km</v>
       </c>
       <c r="D37" t="str">
-        <v>Pereira - Risaralda</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E37" t="str">
-        <v>127.000.000</v>
+        <v>85.900.000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B38" t="str">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C38" t="str">
-        <v>11.100 Km</v>
+        <v>36.500 Km</v>
       </c>
       <c r="D38" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Fontibón - Bogotá D.C.</v>
       </c>
       <c r="E38" t="str">
-        <v>118.500.000</v>
+        <v>114.000.000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Subaru Outback 3.6r Limited</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B39" t="str">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C39" t="str">
-        <v>39.000 Km</v>
+        <v>17.600 Km</v>
       </c>
       <c r="D39" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E39" t="str">
-        <v>81.000.000</v>
+        <v>187.900.000</v>
       </c>
     </row>
     <row r="40">
@@ -1064,220 +1070,220 @@
         <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B40" t="str">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C40" t="str">
-        <v>120.000 Km</v>
+        <v>26.950 Km</v>
       </c>
       <c r="D40" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E40" t="str">
-        <v>115.900.000</v>
+        <v>106.900.000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Subaru Xv Limited Eyesight</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B41" t="str">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C41" t="str">
-        <v>34.581 Km</v>
+        <v>11.100 Km</v>
       </c>
       <c r="D41" t="str">
-        <v>Puente Aranda - Bogotá D.C.</v>
+        <v>Pereira - Risaralda</v>
       </c>
       <c r="E41" t="str">
-        <v>115.600.000</v>
+        <v>127.000.000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Forester 2500cc Mt</v>
       </c>
       <c r="B42" t="str">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C42" t="str">
-        <v>35.000 Km</v>
+        <v>58.000 Km</v>
       </c>
       <c r="D42" t="str">
-        <v>Medellín - Antioquia</v>
+        <v>Martires - Bogotá D.C.</v>
       </c>
       <c r="E42" t="str">
-        <v>95.900.000</v>
+        <v>85.000.000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Subaru Xv 2.0 Style Cvt At 6 Airb 4x4</v>
+        <v>Subaru Xv Limited Eyesight</v>
       </c>
       <c r="B43" t="str">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C43" t="str">
-        <v>47.000 Km</v>
+        <v>35.000 Km</v>
       </c>
       <c r="D43" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Puente Aranda - Bogotá D.C.</v>
       </c>
       <c r="E43" t="str">
-        <v>79.900.000</v>
+        <v>114.700.000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Subaru Xv Sport 2.0 At</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B44" t="str">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C44" t="str">
-        <v>84.000 Km</v>
+        <v>47.000 Km</v>
       </c>
       <c r="D44" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Medellín - Antioquia</v>
       </c>
       <c r="E44" t="str">
-        <v>117.000.000</v>
+        <v>95.900.000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Subaru Xv 2.0cc At 6ab 4x4</v>
+        <v>Subaru Xv 2.0 Style Cvt At 6 Airb 4x4</v>
       </c>
       <c r="B45" t="str">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C45" t="str">
-        <v>48.000 Km</v>
+        <v>84.000 Km</v>
       </c>
       <c r="D45" t="str">
         <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E45" t="str">
-        <v>76.900.000</v>
+        <v>79.900.000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Xv Sport 2.0 At</v>
       </c>
       <c r="B46" t="str">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C46" t="str">
-        <v>58.000 Km</v>
+        <v>48.000 Km</v>
       </c>
       <c r="D46" t="str">
         <v>Manizales - Caldas</v>
       </c>
       <c r="E46" t="str">
-        <v>112.000.000</v>
+        <v>117.000.000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Subaru Impreza 1.6 Awd Gg</v>
+        <v>Subaru Xv 2.0cc At 6ab 4x4</v>
       </c>
       <c r="B47" t="str">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C47" t="str">
-        <v>107.000 Km</v>
+        <v>58.000 Km</v>
       </c>
       <c r="D47" t="str">
-        <v>Medellín - Antioquia</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E47" t="str">
-        <v>28.900.000</v>
+        <v>76.900.000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Subaru Outback 2.5i Awd</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B48" t="str">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="C48" t="str">
-        <v>188.000 Km</v>
+        <v>107.000 Km</v>
       </c>
       <c r="D48" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E48" t="str">
-        <v>52.000.000</v>
+        <v>112.000.000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Subaru Xv 2.0 Cvt</v>
+        <v>Subaru Impreza 1.6 Awd Gg</v>
       </c>
       <c r="B49" t="str">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="C49" t="str">
-        <v>135.000 Km</v>
+        <v>188.000 Km</v>
       </c>
       <c r="D49" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Medellín - Antioquia</v>
       </c>
       <c r="E49" t="str">
-        <v>103.000.000</v>
+        <v>28.900.000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Subaru Glf 1.8 4wd Gl</v>
+        <v>Subaru Outback 2.5i Awd</v>
       </c>
       <c r="B50" t="str">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C50" t="str">
-        <v>35.000 Km</v>
+        <v>135.000 Km</v>
       </c>
       <c r="D50" t="str">
-        <v>La Calera - Cundinamarca</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E50" t="str">
-        <v>14.500.000</v>
+        <v>52.000.000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Xv 2.0 Cvt</v>
       </c>
       <c r="B51" t="str">
-        <v>1983</v>
+        <v>2018</v>
       </c>
       <c r="C51" t="str">
-        <v>214.091 Km</v>
+        <v>35.000 Km</v>
       </c>
       <c r="D51" t="str">
         <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E51" t="str">
-        <v>99.990.000</v>
+        <v>103.000.000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Glf 1.8 4wd Gl</v>
       </c>
       <c r="B52" t="str">
-        <v>2018</v>
+        <v>1983</v>
       </c>
       <c r="C52" t="str">
-        <v>55.000 Km</v>
+        <v>214.091 Km</v>
       </c>
       <c r="D52" t="str">
-        <v>Villamaria - Caldas</v>
+        <v>La Calera - Cundinamarca</v>
       </c>
       <c r="E52" t="str">
-        <v>85.000.000</v>
+        <v>14.500.000</v>
       </c>
     </row>
     <row r="53">
@@ -1285,480 +1291,480 @@
         <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B53" t="str">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C53" t="str">
-        <v>61.300 Km</v>
+        <v>55.000 Km</v>
       </c>
       <c r="D53" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E53" t="str">
-        <v>73.900.000</v>
+        <v>99.990.000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B54" t="str">
         <v>2017</v>
       </c>
       <c r="C54" t="str">
-        <v>74.000 Km</v>
+        <v>61.300 Km</v>
       </c>
       <c r="D54" t="str">
-        <v>Girón - Santander</v>
+        <v>Villamaria - Caldas</v>
       </c>
       <c r="E54" t="str">
-        <v>102.000.000</v>
+        <v>85.000.000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B55" t="str">
         <v>2017</v>
       </c>
       <c r="C55" t="str">
-        <v>108.000 Km</v>
+        <v>74.000 Km</v>
       </c>
       <c r="D55" t="str">
-        <v>Tunja - Boyaca</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E55" t="str">
-        <v>108.000.000</v>
+        <v>73.900.000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B56" t="str">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C56" t="str">
-        <v>68.102 Km</v>
+        <v>108.000 Km</v>
       </c>
       <c r="D56" t="str">
-        <v>Pereira - Risaralda</v>
+        <v>Girón - Santander</v>
       </c>
       <c r="E56" t="str">
-        <v>52.000.000</v>
+        <v>102.000.000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B57" t="str">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C57" t="str">
-        <v>181.950 Km</v>
+        <v>68.102 Km</v>
       </c>
       <c r="D57" t="str">
-        <v>Bucaramanga - Santander</v>
+        <v>Tunja - Boyaca</v>
       </c>
       <c r="E57" t="str">
-        <v>107.000.000</v>
+        <v>108.000.000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B58" t="str">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C58" t="str">
-        <v>90.400 Km</v>
+        <v>181.950 Km</v>
       </c>
       <c r="D58" t="str">
-        <v>Kennedy - Bogotá D.C.</v>
+        <v>Pereira - Risaralda</v>
       </c>
       <c r="E58" t="str">
-        <v>92.000.000</v>
+        <v>52.000.000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B59" t="str">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C59" t="str">
-        <v>87.000 Km</v>
+        <v>90.400 Km</v>
       </c>
       <c r="D59" t="str">
-        <v>Tunja - Boyaca</v>
+        <v>Bucaramanga - Santander</v>
       </c>
       <c r="E59" t="str">
-        <v>106.990.000</v>
+        <v>107.000.000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B60" t="str">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C60" t="str">
-        <v>87.800 Km</v>
+        <v>87.000 Km</v>
       </c>
       <c r="D60" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Kennedy - Bogotá D.C.</v>
       </c>
       <c r="E60" t="str">
-        <v>100.900.000</v>
+        <v>92.000.000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B61" t="str">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C61" t="str">
-        <v>76.754 Km</v>
+        <v>87.800 Km</v>
       </c>
       <c r="D61" t="str">
-        <v>Neiva - Huila</v>
+        <v>Tunja - Boyaca</v>
       </c>
       <c r="E61" t="str">
-        <v>123.000.000</v>
+        <v>106.990.000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Subaru Impreza 1.6 Awd Gg</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B62" t="str">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C62" t="str">
-        <v>38.000 Km</v>
+        <v>76.754 Km</v>
       </c>
       <c r="D62" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E62" t="str">
-        <v>25.000.000</v>
+        <v>100.900.000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Subaru Evoltis 2.4t Touring</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B63" t="str">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="C63" t="str">
-        <v>160.000 Km</v>
+        <v>38.000 Km</v>
       </c>
       <c r="D63" t="str">
-        <v>Cajicá - Cundinamarca</v>
+        <v>Neiva - Huila</v>
       </c>
       <c r="E63" t="str">
-        <v>165.000.000</v>
+        <v>123.000.000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Subaru Xv Hybrid 2.0</v>
+        <v>Subaru Impreza 1.6 Awd Gg</v>
       </c>
       <c r="B64" t="str">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C64" t="str">
-        <v>50.500 Km</v>
+        <v>160.000 Km</v>
       </c>
       <c r="D64" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E64" t="str">
-        <v>141.900.000</v>
+        <v>25.000.000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Evoltis 2.4t Touring</v>
       </c>
       <c r="B65" t="str">
         <v>2021</v>
       </c>
       <c r="C65" t="str">
-        <v>31.789 Km</v>
+        <v>50.500 Km</v>
       </c>
       <c r="D65" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Cajicá - Cundinamarca</v>
       </c>
       <c r="E65" t="str">
-        <v>116.900.000</v>
+        <v>165.000.000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Xv Hybrid 2.0</v>
       </c>
       <c r="B66" t="str">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C66" t="str">
-        <v>71.784 Km</v>
+        <v>31.789 Km</v>
       </c>
       <c r="D66" t="str">
         <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E66" t="str">
-        <v>95.000.000</v>
+        <v>141.900.000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Subaru Xv Limited Eyesight</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B67" t="str">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C67" t="str">
-        <v>64.600 Km</v>
+        <v>71.784 Km</v>
       </c>
       <c r="D67" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E67" t="str">
-        <v>110.000.000</v>
+        <v>116.900.000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Subaru Forester Dynamic 2.0</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B68" t="str">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C68" t="str">
-        <v>61.000 Km</v>
+        <v>64.600 Km</v>
       </c>
       <c r="D68" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E68" t="str">
-        <v>121.900.000</v>
+        <v>95.000.000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Subaru Forester Limited 2.5</v>
+        <v>Subaru Xv Limited Eyesight</v>
       </c>
       <c r="B69" t="str">
         <v>2019</v>
       </c>
       <c r="C69" t="str">
-        <v>21.844 Km</v>
+        <v>61.000 Km</v>
       </c>
       <c r="D69" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E69" t="str">
-        <v>132.900.000</v>
+        <v>110.000.000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Forester Dynamic 2.0</v>
       </c>
       <c r="B70" t="str">
         <v>2019</v>
       </c>
       <c r="C70" t="str">
-        <v>33.509 Km</v>
+        <v>21.844 Km</v>
       </c>
       <c r="D70" t="str">
         <v>Chía - Cundinamarca</v>
       </c>
       <c r="E70" t="str">
-        <v>117.900.000</v>
+        <v>121.900.000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester Limited 2.5</v>
       </c>
       <c r="B71" t="str">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C71" t="str">
-        <v>40.820 Km</v>
+        <v>33.509 Km</v>
       </c>
       <c r="D71" t="str">
         <v>Chía - Cundinamarca</v>
       </c>
       <c r="E71" t="str">
-        <v>73.900.000</v>
+        <v>132.900.000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Subaru Forester Dynamic Tp 2000cc</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B72" t="str">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C72" t="str">
-        <v>55.718 Km</v>
+        <v>40.820 Km</v>
       </c>
       <c r="D72" t="str">
         <v>Chía - Cundinamarca</v>
       </c>
       <c r="E72" t="str">
-        <v>136.900.000</v>
+        <v>117.900.000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Subaru Evoltis 2.4t Touring</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B73" t="str">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C73" t="str">
-        <v>33.779 Km</v>
+        <v>55.718 Km</v>
       </c>
       <c r="D73" t="str">
-        <v>Teusaquillo - Bogotá D.C.</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E73" t="str">
-        <v>195.000.000</v>
+        <v>73.900.000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Subaru Forester 2.0i-s Eyesiight</v>
+        <v>Subaru Forester Dynamic Tp 2000cc</v>
       </c>
       <c r="B74" t="str">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C74" t="str">
-        <v>15.000 Km</v>
+        <v>33.779 Km</v>
       </c>
       <c r="D74" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E74" t="str">
-        <v>98.000.000</v>
+        <v>136.900.000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Subaru Forester Hybrid 2.0</v>
+        <v>Subaru Evoltis 2.4t Touring</v>
       </c>
       <c r="B75" t="str">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C75" t="str">
-        <v>112.283 Km</v>
+        <v>15.000 Km</v>
       </c>
       <c r="D75" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Teusaquillo - Bogotá D.C.</v>
       </c>
       <c r="E75" t="str">
-        <v>173.900.000</v>
+        <v>195.000.000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Forester 2.0i-s Eyesiight</v>
       </c>
       <c r="B76" t="str">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C76" t="str">
-        <v>25.829 Km</v>
+        <v>112.283 Km</v>
       </c>
       <c r="D76" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E76" t="str">
-        <v>79.900.000</v>
+        <v>98.000.000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Subaru Evoltis 2.4t Limited</v>
+        <v>Subaru Forester Hybrid 2.0</v>
       </c>
       <c r="B77" t="str">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C77" t="str">
-        <v>47.000 Km</v>
+        <v>25.829 Km</v>
       </c>
       <c r="D77" t="str">
-        <v>Envigado - Antioquia</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E77" t="str">
-        <v>179.500.000</v>
+        <v>173.900.000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B78" t="str">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="C78" t="str">
-        <v>13.000 Km</v>
+        <v>47.000 Km</v>
       </c>
       <c r="D78" t="str">
-        <v>Sabaneta - Antioquia</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E78" t="str">
-        <v>99.600.000</v>
+        <v>79.900.000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Evoltis 2.4t Limited</v>
       </c>
       <c r="B79" t="str">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C79" t="str">
-        <v>57.000 Km</v>
+        <v>13.000 Km</v>
       </c>
       <c r="D79" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Envigado - Antioquia</v>
       </c>
       <c r="E79" t="str">
-        <v>79.500.000</v>
+        <v>179.500.000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B80" t="str">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C80" t="str">
-        <v>82.000 Km</v>
+        <v>57.000 Km</v>
       </c>
       <c r="D80" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Sabaneta - Antioquia</v>
       </c>
       <c r="E80" t="str">
-        <v>105.000.000</v>
+        <v>99.600.000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B81" t="str">
         <v>2018</v>
@@ -1767,15 +1773,15 @@
         <v>21.096 Km</v>
       </c>
       <c r="D81" t="str">
-        <v>Ramiriquí - Boyaca</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E81" t="str">
-        <v>103.500.000</v>
+        <v>105.000.000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Subaru Forester 2.0 Aut Dynamic</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B82" t="str">
         <v>2018</v>
@@ -1784,15 +1790,15 @@
         <v>59.800 Km</v>
       </c>
       <c r="D82" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Ramiriquí - Boyaca</v>
       </c>
       <c r="E82" t="str">
-        <v>118.000.000</v>
+        <v>103.500.000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Subaru Xv Premium Automática 4</v>
+        <v>Subaru Forester 2.0 Aut Dynamic</v>
       </c>
       <c r="B83" t="str">
         <v>2019</v>
@@ -1804,126 +1810,126 @@
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E83" t="str">
-        <v>53.500.000</v>
+        <v>118.000.000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B84" t="str">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C84" t="str">
-        <v>142.000 Km</v>
+        <v>75.000 Km</v>
       </c>
       <c r="D84" t="str">
-        <v>Medellín - Antioquia</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E84" t="str">
-        <v>95.990.000</v>
+        <v>83.500.000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Subaru Legacy 3.6r Eyesight</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B85" t="str">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C85" t="str">
-        <v>65.000 Km</v>
+        <v>82.000 Km</v>
       </c>
       <c r="D85" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E85" t="str">
-        <v>96.500.000</v>
+        <v>79.500.000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Xv Premium Automática 4</v>
       </c>
       <c r="B86" t="str">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="C86" t="str">
-        <v>39.800 Km</v>
+        <v>142.000 Km</v>
       </c>
       <c r="D86" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E86" t="str">
-        <v>96.900.000</v>
+        <v>53.500.000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Subaru Xv 2.0 Dinamic</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B87" t="str">
         <v>2017</v>
       </c>
       <c r="C87" t="str">
-        <v>43.415 Km</v>
+        <v>65.000 Km</v>
       </c>
       <c r="D87" t="str">
-        <v>Fontibón - Bogotá D.C.</v>
+        <v>Medellín - Antioquia</v>
       </c>
       <c r="E87" t="str">
-        <v>115.900.000</v>
+        <v>95.990.000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Subaru Impreza 2.0 Awd Sport Gt</v>
+        <v>Subaru Legacy 3.6r Eyesight</v>
       </c>
       <c r="B88" t="str">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C88" t="str">
-        <v>36.000 Km</v>
+        <v>39.800 Km</v>
       </c>
       <c r="D88" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E88" t="str">
-        <v>86.200.000</v>
+        <v>96.500.000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Xv 2.0 Dinamic</v>
       </c>
       <c r="B89" t="str">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C89" t="str">
-        <v>26.000 Km</v>
+        <v>36.000 Km</v>
       </c>
       <c r="D89" t="str">
-        <v>Medellín - Antioquia</v>
+        <v>Fontibón - Bogotá D.C.</v>
       </c>
       <c r="E89" t="str">
-        <v>88.900.000</v>
+        <v>109.900.000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Subaru Outback 3.6r Limited</v>
+        <v>Subaru Impreza 2.0 Awd Sport Gt</v>
       </c>
       <c r="B90" t="str">
         <v>2018</v>
       </c>
       <c r="C90" t="str">
-        <v>65.713 Km</v>
+        <v>26.000 Km</v>
       </c>
       <c r="D90" t="str">
         <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E90" t="str">
-        <v>84.000.000</v>
+        <v>86.200.000</v>
       </c>
     </row>
     <row r="91">
@@ -1931,38 +1937,38 @@
         <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B91" t="str">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C91" t="str">
-        <v>110.000 Km</v>
+        <v>65.713 Km</v>
       </c>
       <c r="D91" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Medellín - Antioquia</v>
       </c>
       <c r="E91" t="str">
-        <v>148.000.000</v>
+        <v>88.900.000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Subaru Forester Premium 2.0 A/t</v>
+        <v>Subaru Outback 3.6r Limited</v>
       </c>
       <c r="B92" t="str">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="C92" t="str">
-        <v>13.000 Km</v>
+        <v>110.000 Km</v>
       </c>
       <c r="D92" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E92" t="str">
-        <v>104.900.000</v>
+        <v>84.000.000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Subaru Outback 3.0 Rh6 Awd</v>
+        <v>Subaru Forester Premium 2.0 A/t 4x4</v>
       </c>
       <c r="B93" t="str">
         <v>2018</v>
@@ -1971,15 +1977,15 @@
         <v>70.000 Km</v>
       </c>
       <c r="D93" t="str">
-        <v>Medellín - Antioquia</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E93" t="str">
-        <v>45.900.000</v>
+        <v>104.900.000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Outback 3.0 Rh6 Awd</v>
       </c>
       <c r="B94" t="str">
         <v>2008</v>
@@ -1991,12 +1997,12 @@
         <v>Medellín - Antioquia</v>
       </c>
       <c r="E94" t="str">
-        <v>66.800.000</v>
+        <v>45.900.000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Subaru Evoltis 2.4t Limited</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B95" t="str">
         <v>2014</v>
@@ -2005,15 +2011,15 @@
         <v>123.000 Km</v>
       </c>
       <c r="D95" t="str">
-        <v>Envigado - Antioquia</v>
+        <v>Medellín - Antioquia</v>
       </c>
       <c r="E95" t="str">
-        <v>165.900.000</v>
+        <v>66.800.000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Subaru Tribeca 3.6 Awd At</v>
+        <v>Subaru Evoltis 2.4t Limited</v>
       </c>
       <c r="B96" t="str">
         <v>2021</v>
@@ -2022,15 +2028,15 @@
         <v>44.000 Km</v>
       </c>
       <c r="D96" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Envigado - Antioquia</v>
       </c>
       <c r="E96" t="str">
-        <v>75.990.000</v>
+        <v>165.900.000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Subaru Forester Oa Automatica</v>
+        <v>Subaru Tribeca 3.6 Awd At</v>
       </c>
       <c r="B97" t="str">
         <v>2013</v>
@@ -2039,270 +2045,270 @@
         <v>107.000 Km</v>
       </c>
       <c r="D97" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E97" t="str">
-        <v>40.800.000</v>
+        <v>75.990.000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Subaru Xv Hybrid 2.0</v>
+        <v>Subaru Impreza 1.6 Awd Gg</v>
       </c>
       <c r="B98" t="str">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C98" t="str">
-        <v>143.000 Km</v>
+        <v>160.000 Km</v>
       </c>
       <c r="D98" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E98" t="str">
-        <v>141.900.000</v>
+        <v>25.000.000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Evoltis 2.4t Touring</v>
       </c>
       <c r="B99" t="str">
         <v>2021</v>
       </c>
       <c r="C99" t="str">
-        <v>31.789 Km</v>
+        <v>50.500 Km</v>
       </c>
       <c r="D99" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Cajicá - Cundinamarca</v>
       </c>
       <c r="E99" t="str">
-        <v>116.900.000</v>
+        <v>165.000.000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Xv Hybrid 2.0</v>
       </c>
       <c r="B100" t="str">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C100" t="str">
-        <v>71.784 Km</v>
+        <v>31.789 Km</v>
       </c>
       <c r="D100" t="str">
         <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E100" t="str">
-        <v>95.000.000</v>
+        <v>141.900.000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Subaru Xv Limited Eyesight</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B101" t="str">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C101" t="str">
-        <v>64.600 Km</v>
+        <v>71.784 Km</v>
       </c>
       <c r="D101" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E101" t="str">
-        <v>110.000.000</v>
+        <v>116.900.000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Subaru Forester Dynamic 2.0</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B102" t="str">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C102" t="str">
-        <v>61.000 Km</v>
+        <v>64.600 Km</v>
       </c>
       <c r="D102" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E102" t="str">
-        <v>121.900.000</v>
+        <v>95.000.000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Subaru Forester Limited 2.5</v>
+        <v>Subaru Xv Limited Eyesight</v>
       </c>
       <c r="B103" t="str">
         <v>2019</v>
       </c>
       <c r="C103" t="str">
-        <v>21.844 Km</v>
+        <v>61.000 Km</v>
       </c>
       <c r="D103" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E103" t="str">
-        <v>132.900.000</v>
+        <v>110.000.000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Forester Dynamic 2.0</v>
       </c>
       <c r="B104" t="str">
         <v>2019</v>
       </c>
       <c r="C104" t="str">
-        <v>33.509 Km</v>
+        <v>21.844 Km</v>
       </c>
       <c r="D104" t="str">
         <v>Chía - Cundinamarca</v>
       </c>
       <c r="E104" t="str">
-        <v>117.900.000</v>
+        <v>121.900.000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester Limited 2.5</v>
       </c>
       <c r="B105" t="str">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C105" t="str">
-        <v>40.820 Km</v>
+        <v>33.509 Km</v>
       </c>
       <c r="D105" t="str">
         <v>Chía - Cundinamarca</v>
       </c>
       <c r="E105" t="str">
-        <v>73.900.000</v>
+        <v>132.900.000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Subaru Forester Dynamic Tp 2000cc</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B106" t="str">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C106" t="str">
-        <v>55.718 Km</v>
+        <v>40.820 Km</v>
       </c>
       <c r="D106" t="str">
         <v>Chía - Cundinamarca</v>
       </c>
       <c r="E106" t="str">
-        <v>136.900.000</v>
+        <v>117.900.000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Subaru Evoltis 2.4t Touring</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B107" t="str">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C107" t="str">
-        <v>33.779 Km</v>
+        <v>55.718 Km</v>
       </c>
       <c r="D107" t="str">
-        <v>Teusaquillo - Bogotá D.C.</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E107" t="str">
-        <v>195.000.000</v>
+        <v>73.900.000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Subaru Forester 2.0i-s Eyesiight</v>
+        <v>Subaru Forester Dynamic Tp 2000cc</v>
       </c>
       <c r="B108" t="str">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C108" t="str">
-        <v>15.000 Km</v>
+        <v>33.779 Km</v>
       </c>
       <c r="D108" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E108" t="str">
-        <v>98.000.000</v>
+        <v>136.900.000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Subaru Forester Hybrid 2.0</v>
+        <v>Subaru Evoltis 2.4t Touring</v>
       </c>
       <c r="B109" t="str">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C109" t="str">
-        <v>112.283 Km</v>
+        <v>15.000 Km</v>
       </c>
       <c r="D109" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Teusaquillo - Bogotá D.C.</v>
       </c>
       <c r="E109" t="str">
-        <v>173.900.000</v>
+        <v>195.000.000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Forester 2.0i-s Eyesiight</v>
       </c>
       <c r="B110" t="str">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C110" t="str">
-        <v>25.829 Km</v>
+        <v>112.283 Km</v>
       </c>
       <c r="D110" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E110" t="str">
-        <v>79.900.000</v>
+        <v>98.000.000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Forester Hybrid 2.0</v>
       </c>
       <c r="B111" t="str">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C111" t="str">
-        <v>47.000 Km</v>
+        <v>25.829 Km</v>
       </c>
       <c r="D111" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E111" t="str">
-        <v>79.500.000</v>
+        <v>173.900.000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B112" t="str">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C112" t="str">
-        <v>82.000 Km</v>
+        <v>47.000 Km</v>
       </c>
       <c r="D112" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E112" t="str">
-        <v>105.000.000</v>
+        <v>79.900.000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B113" t="str">
         <v>2018</v>
@@ -2311,15 +2317,15 @@
         <v>21.096 Km</v>
       </c>
       <c r="D113" t="str">
-        <v>Ramiriquí - Boyaca</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E113" t="str">
-        <v>103.500.000</v>
+        <v>105.000.000</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Subaru Forester 2.0 Aut Dynamic</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B114" t="str">
         <v>2018</v>
@@ -2328,15 +2334,15 @@
         <v>59.800 Km</v>
       </c>
       <c r="D114" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Ramiriquí - Boyaca</v>
       </c>
       <c r="E114" t="str">
-        <v>118.000.000</v>
+        <v>103.500.000</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Subaru Xv Premium Automática 4</v>
+        <v>Subaru Forester 2.0 Aut Dynamic</v>
       </c>
       <c r="B115" t="str">
         <v>2019</v>
@@ -2348,131 +2354,131 @@
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E115" t="str">
-        <v>53.500.000</v>
+        <v>118.000.000</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Subaru Legacy 3.6r Eyesight</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B116" t="str">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C116" t="str">
-        <v>142.000 Km</v>
+        <v>75.000 Km</v>
       </c>
       <c r="D116" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E116" t="str">
-        <v>96.500.000</v>
+        <v>83.500.000</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B117" t="str">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C117" t="str">
-        <v>39.800 Km</v>
+        <v>82.000 Km</v>
       </c>
       <c r="D117" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E117" t="str">
-        <v>96.900.000</v>
+        <v>79.500.000</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Subaru Xv 2.0 Dinamic</v>
+        <v>Subaru Xv Premium Automática 4</v>
       </c>
       <c r="B118" t="str">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C118" t="str">
-        <v>43.415 Km</v>
+        <v>142.000 Km</v>
       </c>
       <c r="D118" t="str">
-        <v>Fontibón - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E118" t="str">
-        <v>115.900.000</v>
+        <v>53.500.000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Subaru Impreza 2.0 Awd Sport Gt</v>
+        <v>Subaru Legacy 3.6r Eyesight</v>
       </c>
       <c r="B119" t="str">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C119" t="str">
-        <v>36.000 Km</v>
+        <v>39.800 Km</v>
       </c>
       <c r="D119" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E119" t="str">
-        <v>86.200.000</v>
+        <v>96.500.000</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Subaru Outback 3.6r Limited</v>
+        <v>Subaru Xv 2.0 Dinamic</v>
       </c>
       <c r="B120" t="str">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C120" t="str">
-        <v>26.000 Km</v>
+        <v>36.000 Km</v>
       </c>
       <c r="D120" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Fontibón - Bogotá D.C.</v>
       </c>
       <c r="E120" t="str">
-        <v>84.000.000</v>
+        <v>109.900.000</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Impreza 2.0 Awd Sport Gt</v>
       </c>
       <c r="B121" t="str">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C121" t="str">
-        <v>110.000 Km</v>
+        <v>26.000 Km</v>
       </c>
       <c r="D121" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E121" t="str">
-        <v>148.000.000</v>
+        <v>86.200.000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Subaru Forester Premium 2.0 A/t</v>
+        <v>Subaru Outback 3.6r Limited</v>
       </c>
       <c r="B122" t="str">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="C122" t="str">
-        <v>13.000 Km</v>
+        <v>110.000 Km</v>
       </c>
       <c r="D122" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E122" t="str">
-        <v>104.900.000</v>
+        <v>84.000.000</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Subaru Tribeca 3.6 Awd At</v>
+        <v>Subaru Forester Premium 2.0 A/t 4x4</v>
       </c>
       <c r="B123" t="str">
         <v>2018</v>
@@ -2484,12 +2490,12 @@
         <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E123" t="str">
-        <v>75.990.000</v>
+        <v>104.900.000</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Subaru Forester Oa Automatica</v>
+        <v>Subaru Tribeca 3.6 Awd At</v>
       </c>
       <c r="B124" t="str">
         <v>2013</v>
@@ -2498,15 +2504,15 @@
         <v>107.000 Km</v>
       </c>
       <c r="D124" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E124" t="str">
-        <v>40.800.000</v>
+        <v>75.990.000</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester Oa Automatica</v>
       </c>
       <c r="B125" t="str">
         <v>2008</v>
@@ -2515,15 +2521,15 @@
         <v>143.000 Km</v>
       </c>
       <c r="D125" t="str">
-        <v>Barrios Unidos - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E125" t="str">
-        <v>98.500.000</v>
+        <v>40.800.000</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Subaru Outback 3.6r Limited</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B126" t="str">
         <v>2019</v>
@@ -2532,15 +2538,15 @@
         <v>39.000 Km</v>
       </c>
       <c r="D126" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E126" t="str">
-        <v>83.000.000</v>
+        <v>98.500.000</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Subaru Forester 2.5 Turbo</v>
+        <v>Subaru Outback 3.6r Limited</v>
       </c>
       <c r="B127" t="str">
         <v>2017</v>
@@ -2549,15 +2555,15 @@
         <v>54.000 Km</v>
       </c>
       <c r="D127" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E127" t="str">
-        <v>62.000.000</v>
+        <v>83.000.000</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Forester 2.5 Turbo</v>
       </c>
       <c r="B128" t="str">
         <v>2009</v>
@@ -2566,15 +2572,15 @@
         <v>194.500 Km</v>
       </c>
       <c r="D128" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E128" t="str">
-        <v>99.000.000</v>
+        <v>62.000.000</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B129" t="str">
         <v>2017</v>
@@ -2583,32 +2589,32 @@
         <v>108.000 Km</v>
       </c>
       <c r="D129" t="str">
-        <v>Medellín - Antioquia</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E129" t="str">
-        <v>104.000.000</v>
+        <v>99.000.000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B130" t="str">
         <v>2018</v>
       </c>
       <c r="C130" t="str">
-        <v>72.000 Km</v>
+        <v>74.000 Km</v>
       </c>
       <c r="D130" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Medellín - Antioquia</v>
       </c>
       <c r="E130" t="str">
-        <v>57.800.000</v>
+        <v>104.000.000</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Subaru Forester 2.0 Awd X 177 Hp</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B131" t="str">
         <v>2012</v>
@@ -2617,15 +2623,15 @@
         <v>120.000 Km</v>
       </c>
       <c r="D131" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E131" t="str">
-        <v>31.000.000</v>
+        <v>57.800.000</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Subaru Tribeca 3.6l Awd</v>
+        <v>Subaru Forester 2.0 Awd X 177 Hp</v>
       </c>
       <c r="B132" t="str">
         <v>2003</v>
@@ -2634,15 +2640,15 @@
         <v>174.000 Km</v>
       </c>
       <c r="D132" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E132" t="str">
-        <v>64.500.000</v>
+        <v>31.000.000</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Tribeca 3.6l Awd</v>
       </c>
       <c r="B133" t="str">
         <v>2012</v>
@@ -2651,15 +2657,15 @@
         <v>102.500 Km</v>
       </c>
       <c r="D133" t="str">
-        <v>Bucaramanga - Santander</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E133" t="str">
-        <v>89.000.000</v>
+        <v>64.500.000</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Subaru Forester 2.0 Xs</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B134" t="str">
         <v>2018</v>
@@ -2668,15 +2674,15 @@
         <v>51.000 Km</v>
       </c>
       <c r="D134" t="str">
-        <v>Teusaquillo - Bogotá D.C.</v>
+        <v>Bucaramanga - Santander</v>
       </c>
       <c r="E134" t="str">
-        <v>54.500.000</v>
+        <v>89.000.000</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.0 Xs</v>
       </c>
       <c r="B135" t="str">
         <v>2010</v>
@@ -2685,15 +2691,15 @@
         <v>129.500 Km</v>
       </c>
       <c r="D135" t="str">
-        <v>Kennedy - Bogotá D.C.</v>
+        <v>Teusaquillo - Bogotá D.C.</v>
       </c>
       <c r="E135" t="str">
-        <v>80.000.000</v>
+        <v>54.500.000</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B136" t="str">
         <v>2016</v>
@@ -2702,10 +2708,10 @@
         <v>78.250 Km</v>
       </c>
       <c r="D136" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Kennedy - Bogotá D.C.</v>
       </c>
       <c r="E136" t="str">
-        <v>98.000.000</v>
+        <v>80.000.000</v>
       </c>
     </row>
     <row r="137">
@@ -2713,10 +2719,10 @@
         <v>Subaru Impreza 2.0 Awd Sport Gt</v>
       </c>
       <c r="B137" t="str">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C137" t="str">
-        <v>59.000 Km</v>
+        <v>29.218 Km</v>
       </c>
       <c r="D137" t="str">
         <v>Santa Fe - Bogotá D.C.</v>
@@ -2730,10 +2736,10 @@
         <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B138" t="str">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C138" t="str">
-        <v>29.218 Km</v>
+        <v>113.000 Km</v>
       </c>
       <c r="D138" t="str">
         <v>Barrios Unidos - Bogotá D.C.</v>
@@ -2744,24 +2750,24 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Subaru Leone 1.8 4wd Gl</v>
+        <v>Subaru Legacy 3.0 R Spec B Awd</v>
       </c>
       <c r="B139" t="str">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C139" t="str">
-        <v>113.000 Km</v>
+        <v>107.000 Km</v>
       </c>
       <c r="D139" t="str">
-        <v>Teusaquillo - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E139" t="str">
-        <v>21.900.000</v>
+        <v>44.500.000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Subaru Xv 2.0 I Sport</v>
+        <v>Subaru Leone 1.8 4wd Gl</v>
       </c>
       <c r="B140" t="str">
         <v>1981</v>
@@ -2770,15 +2776,15 @@
         <v>200.000 Km</v>
       </c>
       <c r="D140" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Teusaquillo - Bogotá D.C.</v>
       </c>
       <c r="E140" t="str">
-        <v>123.900.000</v>
+        <v>21.900.000</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Xv 2.0 I Sport</v>
       </c>
       <c r="B141" t="str">
         <v>2021</v>
@@ -2787,15 +2793,15 @@
         <v>17.500 Km</v>
       </c>
       <c r="D141" t="str">
-        <v>Santa Fe - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E141" t="str">
-        <v>94.900.000</v>
+        <v>123.900.000</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Subaru Outback 3.6r Limited Fe</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B142" t="str">
         <v>2017</v>
@@ -2804,15 +2810,15 @@
         <v>47.125 Km</v>
       </c>
       <c r="D142" t="str">
-        <v>Antonio Nariño - Bogotá D.C.</v>
+        <v>Santa Fe - Bogotá D.C.</v>
       </c>
       <c r="E142" t="str">
-        <v>89.900.000</v>
+        <v>94.900.000</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Subaru Forester 2.5 Xs</v>
+        <v>Subaru Outback 3.6r Limited Fe</v>
       </c>
       <c r="B143" t="str">
         <v>2016</v>
@@ -2821,389 +2827,389 @@
         <v>76.500 Km</v>
       </c>
       <c r="D143" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Antonio Nariño - Bogotá D.C.</v>
       </c>
       <c r="E143" t="str">
-        <v>68.800.000</v>
+        <v>89.900.000</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Tribeca 3.6 H6 Awd 7p 2013</v>
       </c>
       <c r="B144" t="str">
         <v>2013</v>
       </c>
       <c r="C144" t="str">
-        <v>100.000 Km</v>
+        <v>90.700 Km</v>
       </c>
       <c r="D144" t="str">
-        <v>Puente Aranda - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E144" t="str">
-        <v>105.500.000</v>
+        <v>73.000.000</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Subaru Xv Dynamic</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B145" t="str">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C145" t="str">
-        <v>89.000 Km</v>
+        <v>39.000 Km</v>
       </c>
       <c r="D145" t="str">
-        <v>Puente Aranda - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E145" t="str">
-        <v>99.200.000</v>
+        <v>114.900.000</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Forester 2.5 Xs</v>
       </c>
       <c r="B146" t="str">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C146" t="str">
-        <v>32.000 Km</v>
+        <v>100.000 Km</v>
       </c>
       <c r="D146" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E146" t="str">
-        <v>100.000.000</v>
+        <v>68.800.000</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Subaru Xv Sport</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B147" t="str">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C147" t="str">
-        <v>48.000 Km</v>
+        <v>89.000 Km</v>
       </c>
       <c r="D147" t="str">
         <v>Puente Aranda - Bogotá D.C.</v>
       </c>
       <c r="E147" t="str">
-        <v>104.000.000</v>
+        <v>105.500.000</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Xv Dynamic</v>
       </c>
       <c r="B148" t="str">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C148" t="str">
-        <v>33.200 Km</v>
+        <v>32.000 Km</v>
       </c>
       <c r="D148" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Puente Aranda - Bogotá D.C.</v>
       </c>
       <c r="E148" t="str">
-        <v>101.000.000</v>
+        <v>98.800.000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Subaru Outback 2.4r Limited</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B149" t="str">
         <v>2017</v>
       </c>
       <c r="C149" t="str">
-        <v>60.400 Km</v>
+        <v>48.000 Km</v>
       </c>
       <c r="D149" t="str">
-        <v>Puente Aranda - Bogotá D.C.</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E149" t="str">
-        <v>163.100.000</v>
+        <v>100.000.000</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Subaru Legacy 2.5l Gt Awd</v>
+        <v>Subaru Xv Eyesight 2.0 At</v>
       </c>
       <c r="B150" t="str">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C150" t="str">
-        <v>2.200 Km</v>
+        <v>31.968 Km</v>
       </c>
       <c r="D150" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E150" t="str">
-        <v>71.000.000</v>
+        <v>122.000.000</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Subaru Forester 2.0 At 4wd</v>
+        <v>Subaru Xv Sport</v>
       </c>
       <c r="B151" t="str">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="C151" t="str">
-        <v>80.000 Km</v>
+        <v>33.200 Km</v>
       </c>
       <c r="D151" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Puente Aranda - Bogotá D.C.</v>
       </c>
       <c r="E151" t="str">
-        <v>45.900.000</v>
+        <v>103.100.000</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Subaru Legacy 2.2l Awd 5 P</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B152" t="str">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C152" t="str">
-        <v>114.604 Km</v>
+        <v>60.400 Km</v>
       </c>
       <c r="D152" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E152" t="str">
-        <v>17.000.000</v>
+        <v>99.900.000</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Subaru Xv Xv Híbrida</v>
+        <v>Subaru Legacy 2.5l Gt Awd</v>
       </c>
       <c r="B153" t="str">
-        <v>1995</v>
+        <v>2011</v>
       </c>
       <c r="C153" t="str">
-        <v>240.000 Km</v>
+        <v>80.000 Km</v>
       </c>
       <c r="D153" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E153" t="str">
-        <v>160.000.000</v>
+        <v>71.000.000</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Forester 2.0 At 4wd</v>
       </c>
       <c r="B154" t="str">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="C154" t="str">
-        <v>5.700 Km</v>
+        <v>114.604 Km</v>
       </c>
       <c r="D154" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E154" t="str">
-        <v>146.000.000</v>
+        <v>45.900.000</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Legacy 2.2l Awd 5 P</v>
       </c>
       <c r="B155" t="str">
-        <v>2021</v>
+        <v>1995</v>
       </c>
       <c r="C155" t="str">
-        <v>35.900 Km</v>
+        <v>240.000 Km</v>
       </c>
       <c r="D155" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E155" t="str">
-        <v>89.000.000</v>
+        <v>17.000.000</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Xv Xv Híbrida</v>
       </c>
       <c r="B156" t="str">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C156" t="str">
-        <v>65.900 Km</v>
+        <v>5.300 Km</v>
       </c>
       <c r="D156" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E156" t="str">
-        <v>78.900.000</v>
+        <v>160.000.000</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B157" t="str">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C157" t="str">
-        <v>49.000 Km</v>
+        <v>35.900 Km</v>
       </c>
       <c r="D157" t="str">
         <v>Manizales - Caldas</v>
       </c>
       <c r="E157" t="str">
-        <v>70.000.000</v>
+        <v>146.000.000</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Subaru Forester Advance 2.5 At</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B158" t="str">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C158" t="str">
-        <v>201.800 Km</v>
+        <v>65.900 Km</v>
       </c>
       <c r="D158" t="str">
         <v>Manizales - Caldas</v>
       </c>
       <c r="E158" t="str">
-        <v>138.000.000</v>
+        <v>89.000.000</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Subaru Xv 2.0cc At Aa 4x4</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B159" t="str">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C159" t="str">
-        <v>66.700 Km</v>
+        <v>49.000 Km</v>
       </c>
       <c r="D159" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E159" t="str">
-        <v>81.000.000</v>
+        <v>78.900.000</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Subaru Impreza 1.5r Awd Gh</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B160" t="str">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C160" t="str">
-        <v>52.500 Km</v>
+        <v>201.800 Km</v>
       </c>
       <c r="D160" t="str">
-        <v>Dosquebradas - Risaralda</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E160" t="str">
-        <v>29.900.000</v>
+        <v>70.000.000</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Subaru Forester 2.5 Limited</v>
+        <v>Subaru Forester Advance 2.5 At</v>
       </c>
       <c r="B161" t="str">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C161" t="str">
-        <v>158.296 Km</v>
+        <v>66.700 Km</v>
       </c>
       <c r="D161" t="str">
-        <v>Teusaquillo - Bogotá D.C.</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E161" t="str">
-        <v>136.000.000</v>
+        <v>138.000.000</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Subaru Outback 3.0 R Awd Automática</v>
+        <v>Subaru Xv 2.0cc At Aa 4x4</v>
       </c>
       <c r="B162" t="str">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C162" t="str">
-        <v>26.870 Km</v>
+        <v>52.500 Km</v>
       </c>
       <c r="D162" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E162" t="str">
-        <v>46.900.000</v>
+        <v>81.000.000</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Impreza 1.5r Awd Gh</v>
       </c>
       <c r="B163" t="str">
         <v>2008</v>
       </c>
       <c r="C163" t="str">
-        <v>139.000 Km</v>
+        <v>158.296 Km</v>
       </c>
       <c r="D163" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Dosquebradas - Risaralda</v>
       </c>
       <c r="E163" t="str">
-        <v>98.000.000</v>
+        <v>29.900.000</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Subaru Legacy 3.0 R Spec B Awd</v>
+        <v>Subaru Forester 2.5 Limited</v>
       </c>
       <c r="B164" t="str">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C164" t="str">
-        <v>39.700 Km</v>
+        <v>26.870 Km</v>
       </c>
       <c r="D164" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Teusaquillo - Bogotá D.C.</v>
       </c>
       <c r="E164" t="str">
-        <v>44.500.000</v>
+        <v>136.000.000</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B165" t="str">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="C165" t="str">
-        <v>107.000 Km</v>
+        <v>39.700 Km</v>
       </c>
       <c r="D165" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E165" t="str">
-        <v>119.900.000</v>
+        <v>98.000.000</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Subaru Xv Style At 2.0l 154hp 7ab Ra17 4x4</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B166" t="str">
         <v>2018</v>
@@ -3212,15 +3218,15 @@
         <v>29.000 Km</v>
       </c>
       <c r="D166" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E166" t="str">
-        <v>93.650.000</v>
+        <v>119.900.000</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Subaru Tribeca 3.6 H6 Awd 7p 2013</v>
+        <v>Subaru Xv Style At 2.0l 154hp 7ab Ra17 4x4</v>
       </c>
       <c r="B167" t="str">
         <v>2019</v>
@@ -3229,32 +3235,32 @@
         <v>73.597 Km</v>
       </c>
       <c r="D167" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E167" t="str">
-        <v>74.000.000</v>
+        <v>93.650.000</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Subaru Tribeca 7 Puestos 3.6 4x4 Automática</v>
+        <v>Subaru Outback 3.0 R Awd Automática</v>
       </c>
       <c r="B168" t="str">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C168" t="str">
-        <v>90.700 Km</v>
+        <v>139.000 Km</v>
       </c>
       <c r="D168" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E168" t="str">
-        <v>72.900.000</v>
+        <v>46.900.000</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Subaru Forester Con Bajo Mt</v>
+        <v>Subaru Tribeca 7 Puestos 3.6 4x4 Automática</v>
       </c>
       <c r="B169" t="str">
         <v>2011</v>
@@ -3266,12 +3272,12 @@
         <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E169" t="str">
-        <v>46.700.000</v>
+        <v>72.900.000</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester Con Bajo Mt</v>
       </c>
       <c r="B170" t="str">
         <v>2009</v>
@@ -3280,15 +3286,15 @@
         <v>244.000 Km</v>
       </c>
       <c r="D170" t="str">
-        <v>Barrios Unidos - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E170" t="str">
-        <v>81.900.000</v>
+        <v>46.700.000</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B171" t="str">
         <v>2017</v>
@@ -3297,15 +3303,15 @@
         <v>65.862 Km</v>
       </c>
       <c r="D171" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E171" t="str">
-        <v>105.900.000</v>
+        <v>81.900.000</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B172" t="str">
         <v>2017</v>
@@ -3314,15 +3320,15 @@
         <v>69.901 Km</v>
       </c>
       <c r="D172" t="str">
-        <v>Bucaramanga - Santander</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E172" t="str">
-        <v>132.000.000</v>
+        <v>105.900.000</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Subaru Forester 2.0 Eyesight</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B173" t="str">
         <v>2022</v>
@@ -3331,15 +3337,15 @@
         <v>3.000 Km</v>
       </c>
       <c r="D173" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Bucaramanga - Santander</v>
       </c>
       <c r="E173" t="str">
-        <v>133.900.000</v>
+        <v>132.000.000</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Subaru Impreza 2.0r Awd Ge</v>
+        <v>Subaru Forester 2.0 Eyesight</v>
       </c>
       <c r="B174" t="str">
         <v>2019</v>
@@ -3348,15 +3354,15 @@
         <v>29.165 Km</v>
       </c>
       <c r="D174" t="str">
-        <v>Barrios Unidos - Bogotá D.C.</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E174" t="str">
-        <v>46.400.000</v>
+        <v>133.900.000</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Subaru Xv Eyesight Limited</v>
+        <v>Subaru Impreza 2.0r Awd Ge</v>
       </c>
       <c r="B175" t="str">
         <v>2011</v>
@@ -3365,15 +3371,15 @@
         <v>62.933 Km</v>
       </c>
       <c r="D175" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E175" t="str">
-        <v>102.900.000</v>
+        <v>46.400.000</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Subaru Xv 2.0 Style Tp</v>
+        <v>Subaru Xv Eyesight Limited</v>
       </c>
       <c r="B176" t="str">
         <v>2018</v>
@@ -3382,15 +3388,15 @@
         <v>70.508 Km</v>
       </c>
       <c r="D176" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E176" t="str">
-        <v>103.900.000</v>
+        <v>102.900.000</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Subaru Xv Xv Style 2.0</v>
+        <v>Subaru Xv 2.0 Style Tp</v>
       </c>
       <c r="B177" t="str">
         <v>2019</v>
@@ -3399,15 +3405,15 @@
         <v>64.022 Km</v>
       </c>
       <c r="D177" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E177" t="str">
-        <v>104.900.000</v>
+        <v>103.900.000</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Subaru Impreza 2.0 Awd Gj</v>
+        <v>Subaru Xv Xv Style 2.0</v>
       </c>
       <c r="B178" t="str">
         <v>2019</v>
@@ -3419,7 +3425,7 @@
         <v>Chía - Cundinamarca</v>
       </c>
       <c r="E178" t="str">
-        <v>58.900.000</v>
+        <v>104.900.000</v>
       </c>
     </row>
     <row r="179">
@@ -3430,7 +3436,7 @@
         <v>2014</v>
       </c>
       <c r="C179" t="str">
-        <v>67.000 Km</v>
+        <v>75.251 Km</v>
       </c>
       <c r="D179" t="str">
         <v>Chía - Cundinamarca</v>
@@ -3444,10 +3450,10 @@
         <v>Subaru Legacy 2.0l Cvt Awd</v>
       </c>
       <c r="B180" t="str">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C180" t="str">
-        <v>75.251 Km</v>
+        <v>90.000 Km</v>
       </c>
       <c r="D180" t="str">
         <v>Usaquén - Bogotá D.C.</v>
@@ -3461,10 +3467,10 @@
         <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B181" t="str">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C181" t="str">
-        <v>90.000 Km</v>
+        <v>110.000 Km</v>
       </c>
       <c r="D181" t="str">
         <v>Usaquén - Bogotá D.C.</v>
@@ -3481,7 +3487,7 @@
         <v>2017</v>
       </c>
       <c r="C182" t="str">
-        <v>110.000 Km</v>
+        <v>60.270 Km</v>
       </c>
       <c r="D182" t="str">
         <v>Suba - Bogotá D.C.</v>
@@ -3495,10 +3501,10 @@
         <v>Subaru Leone 1.8 4wd Gl</v>
       </c>
       <c r="B183" t="str">
-        <v>2017</v>
+        <v>1993</v>
       </c>
       <c r="C183" t="str">
-        <v>60.270 Km</v>
+        <v>268.000 Km</v>
       </c>
       <c r="D183" t="str">
         <v>Santa Marta (Distrito Turistico Cultural E Historico) - Magdalena</v>
@@ -3512,169 +3518,169 @@
         <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B184" t="str">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="C184" t="str">
-        <v>268.000 Km</v>
+        <v>13.746 Km</v>
       </c>
       <c r="D184" t="str">
         <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E184" t="str">
-        <v>120.000.000</v>
+        <v>115.000.000</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Forester Xt</v>
       </c>
       <c r="B185" t="str">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C185" t="str">
-        <v>13.746 Km</v>
+        <v>72.573 Km</v>
       </c>
       <c r="D185" t="str">
-        <v>Duitama - Boyaca</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E185" t="str">
-        <v>97.900.000</v>
+        <v>116.900.000</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Subaru Forester Xt</v>
+        <v>Subaru Impreza 1.5r Awd Gh</v>
       </c>
       <c r="B186" t="str">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="C186" t="str">
-        <v>49.420 Km</v>
+        <v>137.100 Km</v>
       </c>
       <c r="D186" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E186" t="str">
-        <v>116.900.000</v>
+        <v>29.000.000</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Subaru Tribeca 3.6l Awd</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B187" t="str">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C187" t="str">
-        <v>72.573 Km</v>
+        <v>76.000 Km</v>
       </c>
       <c r="D187" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E187" t="str">
-        <v>81.500.000</v>
+        <v>77.000.000</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Subaru Impreza 1.5r Awd Gh</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B188" t="str">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C188" t="str">
-        <v>55.000 Km</v>
+        <v>147.000 Km</v>
       </c>
       <c r="D188" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E188" t="str">
-        <v>29.000.000</v>
+        <v>80.000.000</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B189" t="str">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="C189" t="str">
-        <v>137.100 Km</v>
+        <v>98.000 Km</v>
       </c>
       <c r="D189" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E189" t="str">
-        <v>77.000.000</v>
+        <v>92.800.000</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Impreza 1.6 Awd Gg</v>
       </c>
       <c r="B190" t="str">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="C190" t="str">
-        <v>76.000 Km</v>
+        <v>185.000 Km</v>
       </c>
       <c r="D190" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E190" t="str">
-        <v>80.000.000</v>
+        <v>27.500.000</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Legacy 3.6r Awd</v>
       </c>
       <c r="B191" t="str">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C191" t="str">
-        <v>147.000 Km</v>
+        <v>25.000 Km</v>
       </c>
       <c r="D191" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E191" t="str">
-        <v>92.800.000</v>
+        <v>97.500.000</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Subaru Impreza 1.6 Awd Gg</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B192" t="str">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C192" t="str">
-        <v>98.000 Km</v>
+        <v>246.000 Km</v>
       </c>
       <c r="D192" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Pereira - Risaralda</v>
       </c>
       <c r="E192" t="str">
-        <v>27.500.000</v>
+        <v>54.000.000</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B193" t="str">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C193" t="str">
-        <v>185.000 Km</v>
+        <v>38.000 Km</v>
       </c>
       <c r="D193" t="str">
-        <v>Pereira - Risaralda</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E193" t="str">
-        <v>54.000.000</v>
+        <v>159.300.000</v>
       </c>
     </row>
     <row r="194">
@@ -3682,288 +3688,288 @@
         <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B194" t="str">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C194" t="str">
-        <v>246.000 Km</v>
+        <v>70.000 Km</v>
       </c>
       <c r="D194" t="str">
-        <v>Barrios Unidos - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E194" t="str">
-        <v>159.300.000</v>
+        <v>91.900.000</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Xv 2,0 Dynamic</v>
       </c>
       <c r="B195" t="str">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C195" t="str">
-        <v>38.000 Km</v>
+        <v>39.000 Km</v>
       </c>
       <c r="D195" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E195" t="str">
-        <v>91.900.000</v>
+        <v>101.500.000</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Subaru Legacy 3.6r Awd</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B196" t="str">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C196" t="str">
-        <v>70.000 Km</v>
+        <v>25.000 Km</v>
       </c>
       <c r="D196" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E196" t="str">
-        <v>97.500.000</v>
+        <v>122.590.000</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Subaru Xv 2,0 Dynamic</v>
+        <v>Subaru Xv Style</v>
       </c>
       <c r="B197" t="str">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C197" t="str">
-        <v>25.000 Km</v>
+        <v>32.028 Km</v>
       </c>
       <c r="D197" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Puente Aranda - Bogotá D.C.</v>
       </c>
       <c r="E197" t="str">
-        <v>101.500.000</v>
+        <v>105.000.000</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B198" t="str">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C198" t="str">
-        <v>39.000 Km</v>
+        <v>135.000 Km</v>
       </c>
       <c r="D198" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Girardot - Cundinamarca</v>
       </c>
       <c r="E198" t="str">
-        <v>122.590.000</v>
+        <v>58.000.000</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Subaru Xv Style</v>
+        <v>Subaru Tribeca 3.6l Awd</v>
       </c>
       <c r="B199" t="str">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C199" t="str">
-        <v>25.000 Km</v>
+        <v>55.000 Km</v>
       </c>
       <c r="D199" t="str">
-        <v>Puente Aranda - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E199" t="str">
-        <v>105.000.000</v>
+        <v>81.500.000</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B200" t="str">
         <v>2019</v>
       </c>
       <c r="C200" t="str">
-        <v>32.028 Km</v>
+        <v>60.000 Km</v>
       </c>
       <c r="D200" t="str">
-        <v>Girardot - Cundinamarca</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E200" t="str">
-        <v>58.000.000</v>
+        <v>127.800.000</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Subaru Legacy 2.5l Awd</v>
+        <v>Subaru Tribeca Subaru Tribeca 3.6 Aut. 4x4 Techo Cuero 7puestos Full Equipo</v>
       </c>
       <c r="B201" t="str">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C201" t="str">
-        <v>135.000 Km</v>
+        <v>60.000 Km</v>
       </c>
       <c r="D201" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E201" t="str">
-        <v>47.500.000</v>
+        <v>74.990.000</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Impreza 1.6 Awd Gg</v>
       </c>
       <c r="B202" t="str">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C202" t="str">
-        <v>76.000 Km</v>
+        <v>102.000 Km</v>
       </c>
       <c r="D202" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E202" t="str">
-        <v>127.800.000</v>
+        <v>28.900.000</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Subaru Tribeca Subaru Tribeca 3.6 Aut. 4x4 Techo Cuero 7puestos Full Equipo</v>
+        <v>Subaru Legacy 2.5l Gt Awd</v>
       </c>
       <c r="B203" t="str">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="C203" t="str">
-        <v>60.000 Km</v>
+        <v>55.000 Km</v>
       </c>
       <c r="D203" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E203" t="str">
-        <v>74.990.000</v>
+        <v>72.800.000</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Subaru Impreza 1.6 Awd Gg</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B204" t="str">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C204" t="str">
-        <v>60.000 Km</v>
+        <v>57.000 Km</v>
       </c>
       <c r="D204" t="str">
-        <v>Barrios Unidos - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E204" t="str">
-        <v>28.900.000</v>
+        <v>118.000.000</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Subaru Legacy 2.5l Gt Awd</v>
+        <v>Subaru Forester Awd</v>
       </c>
       <c r="B205" t="str">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C205" t="str">
-        <v>102.000 Km</v>
+        <v>159.000 Km</v>
       </c>
       <c r="D205" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E205" t="str">
-        <v>72.800.000</v>
+        <v>47.990.000</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Subaru Forester Awd</v>
+        <v>Subaru Legacy 2.0r Awd 4 P</v>
       </c>
       <c r="B206" t="str">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C206" t="str">
-        <v>55.000 Km</v>
+        <v>132.252 Km</v>
       </c>
       <c r="D206" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Pereira - Risaralda</v>
       </c>
       <c r="E206" t="str">
-        <v>47.990.000</v>
+        <v>35.900.000</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Subaru Legacy 2.0r Awd 4 P</v>
+        <v>Subaru Xv Awd Full Symmetrical</v>
       </c>
       <c r="B207" t="str">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C207" t="str">
-        <v>159.000 Km</v>
+        <v>97.000 Km</v>
       </c>
       <c r="D207" t="str">
-        <v>Pereira - Risaralda</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E207" t="str">
-        <v>35.900.000</v>
+        <v>51.900.000</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Subaru Xv Awd Full Symmetrical</v>
+        <v>Subaru Forester 2.5 Xs Limited</v>
       </c>
       <c r="B208" t="str">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C208" t="str">
-        <v>132.252 Km</v>
+        <v>155.789 Km</v>
       </c>
       <c r="D208" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Teusaquillo - Bogotá D.C.</v>
       </c>
       <c r="E208" t="str">
-        <v>51.900.000</v>
+        <v>63.999.997</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Subaru Forester 2.5 Xs Limited</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B209" t="str">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C209" t="str">
-        <v>97.000 Km</v>
+        <v>69.000 Km</v>
       </c>
       <c r="D209" t="str">
-        <v>Teusaquillo - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E209" t="str">
-        <v>63.999.997</v>
+        <v>91.800.000</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B210" t="str">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C210" t="str">
-        <v>155.789 Km</v>
+        <v>69.000 Km</v>
       </c>
       <c r="D210" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Fontibón - Bogotá D.C.</v>
       </c>
       <c r="E210" t="str">
-        <v>91.800.000</v>
+        <v>83.900.000</v>
       </c>
     </row>
     <row r="211">
@@ -3971,475 +3977,475 @@
         <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B211" t="str">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C211" t="str">
-        <v>69.000 Km</v>
+        <v>45.000 Km</v>
       </c>
       <c r="D211" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E211" t="str">
-        <v>81.000.000</v>
+        <v>97.000.000</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B212" t="str">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C212" t="str">
-        <v>79.570 Km</v>
+        <v>62.001 Km</v>
       </c>
       <c r="D212" t="str">
-        <v>Fontibón - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E212" t="str">
-        <v>83.900.000</v>
+        <v>110.000.000</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Outback 3.6 At Awd Limited</v>
       </c>
       <c r="B213" t="str">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C213" t="str">
-        <v>69.000 Km</v>
+        <v>70.700 Km</v>
       </c>
       <c r="D213" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E213" t="str">
-        <v>97.000.000</v>
+        <v>75.000.000</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B214" t="str">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C214" t="str">
-        <v>45.000 Km</v>
+        <v>89.000 Km</v>
       </c>
       <c r="D214" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E214" t="str">
-        <v>110.000.000</v>
+        <v>104.900.000</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Subaru Outback 3.6 At Awd Limited</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B215" t="str">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C215" t="str">
-        <v>62.001 Km</v>
+        <v>96.000 Km</v>
       </c>
       <c r="D215" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E215" t="str">
-        <v>75.000.000</v>
+        <v>69.900.000</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Tribeca 3.6l Awd</v>
       </c>
       <c r="B216" t="str">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C216" t="str">
-        <v>70.700 Km</v>
+        <v>95.000 Km</v>
       </c>
       <c r="D216" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E216" t="str">
-        <v>104.900.000</v>
+        <v>68.900.000</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester Forester Hibrida</v>
       </c>
       <c r="B217" t="str">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C217" t="str">
-        <v>89.000 Km</v>
+        <v>17.000 Km</v>
       </c>
       <c r="D217" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E217" t="str">
-        <v>69.900.000</v>
+        <v>198.000.000</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Subaru Tribeca 3.6l Awd</v>
+        <v>Subaru Impreza 1.6 Awd Gg</v>
       </c>
       <c r="B218" t="str">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="C218" t="str">
-        <v>96.000 Km</v>
+        <v>223.000 Km</v>
       </c>
       <c r="D218" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E218" t="str">
-        <v>68.900.000</v>
+        <v>28.900.000</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Subaru Forester Forester Hibrida</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B219" t="str">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C219" t="str">
-        <v>95.000 Km</v>
+        <v>70.000 Km</v>
       </c>
       <c r="D219" t="str">
         <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E219" t="str">
-        <v>198.000.000</v>
+        <v>87.900.000</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Subaru Impreza 1.6 Awd Gg</v>
+        <v>Subaru Tribeca 3.6l Awd</v>
       </c>
       <c r="B220" t="str">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="C220" t="str">
-        <v>17.000 Km</v>
+        <v>55.000 Km</v>
       </c>
       <c r="D220" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E220" t="str">
-        <v>28.900.000</v>
+        <v>81.500.000</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Subaru Tribeca 3.6l Awd</v>
+        <v>Subaru Forester 2.0 Xs</v>
       </c>
       <c r="B221" t="str">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C221" t="str">
-        <v>223.000 Km</v>
+        <v>129.000 Km</v>
       </c>
       <c r="D221" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Teusaquillo - Bogotá D.C.</v>
       </c>
       <c r="E221" t="str">
-        <v>3.000.000</v>
+        <v>49.900.000</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Subaru Forester 2.0 Xs</v>
+        <v>Subaru Impreza 2.0r Awd Gh</v>
       </c>
       <c r="B222" t="str">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C222" t="str">
-        <v>180.000 Km</v>
+        <v>110.000 Km</v>
       </c>
       <c r="D222" t="str">
-        <v>Teusaquillo - Bogotá D.C.</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E222" t="str">
-        <v>50.000.000</v>
+        <v>43.000.000</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Subaru Legacy 2.2l Awd</v>
+        <v>Subaru Forester 2.0 Xt</v>
       </c>
       <c r="B223" t="str">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C223" t="str">
-        <v>129.000 Km</v>
+        <v>85.300 Km</v>
       </c>
       <c r="D223" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Fontibón - Bogotá D.C.</v>
       </c>
       <c r="E223" t="str">
-        <v>24.800.000</v>
+        <v>111.500.000</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Subaru Impreza 2.0r Awd Gh</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B224" t="str">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="C224" t="str">
-        <v>210.000 Km</v>
+        <v>52.000 Km</v>
       </c>
       <c r="D224" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Bucaramanga - Santander</v>
       </c>
       <c r="E224" t="str">
-        <v>43.000.000</v>
+        <v>81.500.000</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B225" t="str">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C225" t="str">
-        <v>110.000 Km</v>
+        <v>81.900 Km</v>
       </c>
       <c r="D225" t="str">
-        <v>Fontibón - Bogotá D.C.</v>
+        <v>Neiva - Huila</v>
       </c>
       <c r="E225" t="str">
-        <v>111.500.000</v>
+        <v>65.000.000</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.0 Xs Limited</v>
       </c>
       <c r="B226" t="str">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C226" t="str">
-        <v>85.300 Km</v>
+        <v>103.000 Km</v>
       </c>
       <c r="D226" t="str">
-        <v>Bucaramanga - Santander</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E226" t="str">
-        <v>81.500.000</v>
+        <v>49.300.000</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Subaru Forester 2.0 Xs Limited</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B227" t="str">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C227" t="str">
-        <v>52.000 Km</v>
+        <v>20.700 Km</v>
       </c>
       <c r="D227" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E227" t="str">
-        <v>49.300.000</v>
+        <v>89.500.000</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Subaru Xv Eyesight Hibrido</v>
+        <v>Subaru Forester 2.0 Cvt</v>
       </c>
       <c r="B228" t="str">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="C228" t="str">
-        <v>103.000 Km</v>
+        <v>158.700 Km</v>
       </c>
       <c r="D228" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E228" t="str">
-        <v>157.500.000</v>
+        <v>75.000.000</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B229" t="str">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C229" t="str">
-        <v>3.800 Km</v>
+        <v>42.000 Km</v>
       </c>
       <c r="D229" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E229" t="str">
-        <v>89.500.000</v>
+        <v>81.000.000</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Subaru Forester 2.0 Cvt</v>
+        <v>Subaru Tribeca 3.6l Awd</v>
       </c>
       <c r="B230" t="str">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C230" t="str">
-        <v>20.700 Km</v>
+        <v>122.000 Km</v>
       </c>
       <c r="D230" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E230" t="str">
-        <v>75.000.000</v>
+        <v>59.500.000</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Impreza 1.6 Awd Gg</v>
       </c>
       <c r="B231" t="str">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="C231" t="str">
-        <v>158.700 Km</v>
+        <v>109.000 Km</v>
       </c>
       <c r="D231" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E231" t="str">
-        <v>81.000.000</v>
+        <v>32.000.000</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Subaru Legacy 2.0l 4wd 4 P</v>
+        <v>Subaru Forester 2.0 Con Bajo</v>
       </c>
       <c r="B232" t="str">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C232" t="str">
-        <v>42.000 Km</v>
+        <v>200.000 Km</v>
       </c>
       <c r="D232" t="str">
         <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E232" t="str">
-        <v>16.000.000</v>
+        <v>46.900.000</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Subaru Forester 2.0 Xt</v>
+        <v>Subaru Legacy 2.0l 4wd 4 P</v>
       </c>
       <c r="B233" t="str">
         <v>1993</v>
       </c>
       <c r="C233" t="str">
-        <v>228.479 Km</v>
+        <v>18.000 Km</v>
       </c>
       <c r="D233" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E233" t="str">
-        <v>94.000.000</v>
+        <v>120.000.000</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Subaru Tribeca 3.6l Awd</v>
+        <v>Subaru Legacy 2.0l Cvt Awd</v>
       </c>
       <c r="B234" t="str">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C234" t="str">
-        <v>88.000 Km</v>
+        <v>89.000 Km</v>
       </c>
       <c r="D234" t="str">
-        <v>Barrios Unidos - Bogotá D.C.</v>
+        <v>Ibagué - Tolima</v>
       </c>
       <c r="E234" t="str">
-        <v>60.500.000</v>
+        <v>46.000.000</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Subaru Outback 3.6r Limited</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B235" t="str">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C235" t="str">
-        <v>122.000 Km</v>
+        <v>75.500 Km</v>
       </c>
       <c r="D235" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Armenia - Quindio</v>
       </c>
       <c r="E235" t="str">
-        <v>119.500.000</v>
+        <v>85.900.000</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Subaru Impreza 1.6 Awd Gg</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B236" t="str">
         <v>2019</v>
       </c>
       <c r="C236" t="str">
-        <v>14.000 Km</v>
+        <v>60.332 Km</v>
       </c>
       <c r="D236" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Tabio - Cundinamarca</v>
       </c>
       <c r="E236" t="str">
-        <v>32.000.000</v>
+        <v>112.000.000</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Subaru Forester 2.0 Con Bajo</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B237" t="str">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="C237" t="str">
-        <v>109.000 Km</v>
+        <v>133.000 Km</v>
       </c>
       <c r="D237" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Ubaté - Cundinamarca</v>
       </c>
       <c r="E237" t="str">
-        <v>46.900.000</v>
+        <v>60.000.000</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Subaru Legacy 1993</v>
+        <v>Subaru Leone 1.8 4wd Gl</v>
       </c>
       <c r="B238" t="str">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="C238" t="str">
-        <v>200.000 Km</v>
+        <v>320.000 Km</v>
       </c>
       <c r="D238" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E238" t="str">
-        <v>16.000.000</v>
+        <v>6.000.000</v>
       </c>
     </row>
     <row r="239">
@@ -4447,33 +4453,33 @@
         <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B239" t="str">
-        <v>1993</v>
+        <v>2017</v>
       </c>
       <c r="C239" t="str">
-        <v>229.000 Km</v>
+        <v>60.000 Km</v>
       </c>
       <c r="D239" t="str">
-        <v>Armenia - Quindio</v>
+        <v>Teusaquillo - Bogotá D.C.</v>
       </c>
       <c r="E239" t="str">
-        <v>87.900.000</v>
+        <v>90.000.000</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B240" t="str">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C240" t="str">
-        <v>74.200 Km</v>
+        <v>32.000 Km</v>
       </c>
       <c r="D240" t="str">
-        <v>Tabio - Cundinamarca</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E240" t="str">
-        <v>112.000.000</v>
+        <v>110.000.000</v>
       </c>
     </row>
     <row r="241">
@@ -4481,98 +4487,98 @@
         <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B241" t="str">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C241" t="str">
-        <v>60.332 Km</v>
+        <v>144.800 Km</v>
       </c>
       <c r="D241" t="str">
-        <v>Ubaté - Cundinamarca</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E241" t="str">
-        <v>60.000.000</v>
+        <v>67.500.000</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Subaru Leone 1.8 4wd Gl</v>
+        <v>Subaru Forester 2.0 Xs Limited</v>
       </c>
       <c r="B242" t="str">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C242" t="str">
-        <v>133.000 Km</v>
+        <v>135.000 Km</v>
       </c>
       <c r="D242" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Mosquera - Cundinamarca</v>
       </c>
       <c r="E242" t="str">
-        <v>8.000.000</v>
+        <v>52.000.000</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B243" t="str">
-        <v>1981</v>
+        <v>2011</v>
       </c>
       <c r="C243" t="str">
-        <v>320.000 Km</v>
+        <v>120.000 Km</v>
       </c>
       <c r="D243" t="str">
-        <v>Teusaquillo - Bogotá D.C.</v>
+        <v>Santa Fe - Bogotá D.C.</v>
       </c>
       <c r="E243" t="str">
-        <v>90.000.000</v>
+        <v>52.000.000</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Outback 2.5 Awd</v>
       </c>
       <c r="B244" t="str">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="C244" t="str">
-        <v>60.000 Km</v>
+        <v>122.000 Km</v>
       </c>
       <c r="D244" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E244" t="str">
-        <v>67.500.000</v>
+        <v>41.000.000</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Subaru Forester 2.0 Xs Limited</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B245" t="str">
         <v>2013</v>
       </c>
       <c r="C245" t="str">
-        <v>144.800 Km</v>
+        <v>74.000 Km</v>
       </c>
       <c r="D245" t="str">
-        <v>Mosquera - Cundinamarca</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E245" t="str">
-        <v>52.000.000</v>
+        <v>69.000.000</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Impreza 2.0 Awd Gj</v>
       </c>
       <c r="B246" t="str">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C246" t="str">
-        <v>135.000 Km</v>
+        <v>87.000 Km</v>
       </c>
       <c r="D246" t="str">
-        <v>Santa Fe - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E246" t="str">
         <v>52.000.000</v>
@@ -4580,325 +4586,325 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Subaru Impreza 2.0 Awd Gj</v>
+        <v>Subaru Impreza 1.5r Awd Gh</v>
       </c>
       <c r="B247" t="str">
         <v>2011</v>
       </c>
       <c r="C247" t="str">
-        <v>120.000 Km</v>
+        <v>96.000 Km</v>
       </c>
       <c r="D247" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Popayán - Cauca</v>
       </c>
       <c r="E247" t="str">
-        <v>52.000.000</v>
+        <v>47.000.000</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>Subaru Impreza 1.5r Awd Gh</v>
+        <v>Subaru Legacy 2.0r Awd 4 P</v>
       </c>
       <c r="B248" t="str">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C248" t="str">
-        <v>87.000 Km</v>
+        <v>69.000 Km</v>
       </c>
       <c r="D248" t="str">
-        <v>Popayán - Cauca</v>
+        <v>Bucaramanga - Santander</v>
       </c>
       <c r="E248" t="str">
-        <v>47.000.000</v>
+        <v>36.900.000</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>Subaru Legacy 2.0r Awd 4 P</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B249" t="str">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C249" t="str">
-        <v>96.000 Km</v>
+        <v>105.500 Km</v>
       </c>
       <c r="D249" t="str">
-        <v>Bucaramanga - Santander</v>
+        <v>Armenia - Quindio</v>
       </c>
       <c r="E249" t="str">
-        <v>36.900.000</v>
+        <v>69.000.000</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B250" t="str">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="C250" t="str">
-        <v>69.000 Km</v>
+        <v>85.000 Km</v>
       </c>
       <c r="D250" t="str">
-        <v>Armenia - Quindio</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E250" t="str">
-        <v>69.000.000</v>
+        <v>108.500.000</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>Subaru Xv 2.0i Limited</v>
+        <v>Subaru Xv Sport 2.0i</v>
       </c>
       <c r="B251" t="str">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C251" t="str">
-        <v>105.500 Km</v>
+        <v>90.800 Km</v>
       </c>
       <c r="D251" t="str">
         <v>Manizales - Caldas</v>
       </c>
       <c r="E251" t="str">
-        <v>108.500.000</v>
+        <v>97.000.000</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>Subaru Xv Sport 2.0i</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B252" t="str">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="C252" t="str">
-        <v>85.000 Km</v>
+        <v>171.000 Km</v>
       </c>
       <c r="D252" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Kennedy - Bogotá D.C.</v>
       </c>
       <c r="E252" t="str">
-        <v>99.000.000</v>
+        <v>55.000.000</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>Subaru Forester Awd 2.0 Turbo</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B253" t="str">
         <v>2019</v>
       </c>
       <c r="C253" t="str">
-        <v>90.800 Km</v>
+        <v>12.000 Km</v>
       </c>
       <c r="D253" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E253" t="str">
-        <v>48.000.000</v>
+        <v>120.000.000</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Legacy 2.0 Automatico</v>
       </c>
       <c r="B254" t="str">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="C254" t="str">
-        <v>235.000 Km</v>
+        <v>11.111 Km</v>
       </c>
       <c r="D254" t="str">
-        <v>Kennedy - Bogotá D.C.</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E254" t="str">
-        <v>55.000.000</v>
+        <v>20.000.000</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Outback 2.5 Awd 173 Hp</v>
       </c>
       <c r="B255" t="str">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C255" t="str">
-        <v>171.000 Km</v>
+        <v>65.000 Km</v>
       </c>
       <c r="D255" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E255" t="str">
-        <v>120.000.000</v>
+        <v>54.000.000</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>Subaru Legacy 2.0 Automatico</v>
+        <v>Subaru Impreza 1.8 Awd Gf</v>
       </c>
       <c r="B256" t="str">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="C256" t="str">
-        <v>12.000 Km</v>
+        <v>236.638 Km</v>
       </c>
       <c r="D256" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>La Calera - Cundinamarca</v>
       </c>
       <c r="E256" t="str">
-        <v>20.000.000</v>
+        <v>14.800.000</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>Subaru Outback 2.5 Awd 173 Hp</v>
+        <v>Subaru Legacy 2.0r Awd 4 P</v>
       </c>
       <c r="B257" t="str">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="C257" t="str">
-        <v>11.111 Km</v>
+        <v>140.000 Km</v>
       </c>
       <c r="D257" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Pereira - Risaralda</v>
       </c>
       <c r="E257" t="str">
-        <v>54.000.000</v>
+        <v>32.990.000</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>Subaru Impreza 1.8 Awd Gf</v>
+        <v>Subaru Leone Glf 1600</v>
       </c>
       <c r="B258" t="str">
-        <v>2007</v>
+        <v>1981</v>
       </c>
       <c r="C258" t="str">
-        <v>65.000 Km</v>
+        <v>1 Km</v>
       </c>
       <c r="D258" t="str">
-        <v>La Calera - Cundinamarca</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E258" t="str">
-        <v>14.800.000</v>
+        <v>14.000.000</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>Subaru Legacy 2.0r Awd 4 P</v>
+        <v>Subaru Forester 2.5 Awd Xt</v>
       </c>
       <c r="B259" t="str">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="C259" t="str">
-        <v>236.638 Km</v>
+        <v>122.000 Km</v>
       </c>
       <c r="D259" t="str">
-        <v>Pereira - Risaralda</v>
+        <v>Sogamoso - Boyaca</v>
       </c>
       <c r="E259" t="str">
-        <v>32.990.000</v>
+        <v>54.900.000</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>Subaru Leone Glf 1600</v>
+        <v>Subaru Forester 2.0 Cvt</v>
       </c>
       <c r="B260" t="str">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="C260" t="str">
-        <v>140.000 Km</v>
+        <v>96.000 Km</v>
       </c>
       <c r="D260" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E260" t="str">
-        <v>14.000.000</v>
+        <v>78.000.000</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>Subaru Forester 2.5 Awd Xt</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B261" t="str">
-        <v>1981</v>
+        <v>2014</v>
       </c>
       <c r="C261" t="str">
-        <v>1 Km</v>
+        <v>93.000 Km</v>
       </c>
       <c r="D261" t="str">
-        <v>Sogamoso - Boyaca</v>
+        <v>Engativa - Bogotá D.C.</v>
       </c>
       <c r="E261" t="str">
-        <v>54.900.000</v>
+        <v>63.900.000</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>Subaru Forester 2.0 Cvt</v>
+        <v>Subaru Tribeca 3.6l Awd</v>
       </c>
       <c r="B262" t="str">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="C262" t="str">
-        <v>122.000 Km</v>
+        <v>65.000 Km</v>
       </c>
       <c r="D262" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E262" t="str">
-        <v>78.000.000</v>
+        <v>79.900.000</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Xv 2.0i Limited</v>
       </c>
       <c r="B263" t="str">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C263" t="str">
-        <v>96.000 Km</v>
+        <v>174.000 Km</v>
       </c>
       <c r="D263" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Funza - Cundinamarca</v>
       </c>
       <c r="E263" t="str">
-        <v>63.900.000</v>
+        <v>72.000.000</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>Subaru Tribeca 3.6l Awd</v>
+        <v>Subaru Forester 2.5 Xs Limited</v>
       </c>
       <c r="B264" t="str">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C264" t="str">
-        <v>93.000 Km</v>
+        <v>131.000 Km</v>
       </c>
       <c r="D264" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Cartago - Valle Del Cauca</v>
       </c>
       <c r="E264" t="str">
-        <v>79.900.000</v>
+        <v>53.000.000</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>Subaru Forester 2.5 Xs Limited</v>
+        <v>Subaru Legacy 3.6r Eyesight</v>
       </c>
       <c r="B265" t="str">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C265" t="str">
-        <v>65.000 Km</v>
+        <v>20.000 Km</v>
       </c>
       <c r="D265" t="str">
-        <v>Cartago - Valle Del Cauca</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E265" t="str">
-        <v>53.000.000</v>
+        <v>93.900.000</v>
       </c>
     </row>
     <row r="266">
@@ -4906,271 +4912,271 @@
         <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B266" t="str">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C266" t="str">
-        <v>131.000 Km</v>
+        <v>64.000 Km</v>
       </c>
       <c r="D266" t="str">
-        <v>La Candelaria - Bogotá D.C.</v>
+        <v>Pasto - Nariño</v>
       </c>
       <c r="E266" t="str">
-        <v>105.000.000</v>
+        <v>100.990.000</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>Subaru Legacy 3.6r Eyesight</v>
+        <v>Subaru Impreza 2.0 Xv Awd Gh</v>
       </c>
       <c r="B267" t="str">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C267" t="str">
-        <v>71.000 Km</v>
+        <v>90.100 Km</v>
       </c>
       <c r="D267" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Zipaquirá - Cundinamarca</v>
       </c>
       <c r="E267" t="str">
-        <v>96.500.000</v>
+        <v>55.000.000</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.0 Awd X</v>
       </c>
       <c r="B268" t="str">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C268" t="str">
-        <v>20.000 Km</v>
+        <v>175.000 Km</v>
       </c>
       <c r="D268" t="str">
-        <v>Engativa - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E268" t="str">
-        <v>69.000.000</v>
+        <v>45.000.000</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Impreza 2.0 Awd Sport Gt</v>
       </c>
       <c r="B269" t="str">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C269" t="str">
-        <v>108.000 Km</v>
+        <v>35.000 Km</v>
       </c>
       <c r="D269" t="str">
-        <v>Pasto - Nariño</v>
+        <v>Chía - Cundinamarca</v>
       </c>
       <c r="E269" t="str">
-        <v>100.990.000</v>
+        <v>83.000.000</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>Subaru Impreza 2.0 Xv Awd Gh</v>
+        <v>Subaru Xv Cvt</v>
       </c>
       <c r="B270" t="str">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C270" t="str">
-        <v>64.000 Km</v>
+        <v>88.000 Km</v>
       </c>
       <c r="D270" t="str">
-        <v>Zipaquirá - Cundinamarca</v>
+        <v>Kennedy - Bogotá D.C.</v>
       </c>
       <c r="E270" t="str">
-        <v>55.000.000</v>
+        <v>66.000.000</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>Subaru Forester 2.0 Awd X</v>
+        <v>Subaru Forester 2.5 Awd Xs</v>
       </c>
       <c r="B271" t="str">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C271" t="str">
-        <v>90.100 Km</v>
+        <v>230.000 Km</v>
       </c>
       <c r="D271" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Martires - Bogotá D.C.</v>
       </c>
       <c r="E271" t="str">
-        <v>45.000.000</v>
+        <v>37.000.000</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>Subaru Impreza 2.0 Awd Sport Gt</v>
+        <v>Subaru Forester 2.0 Mt</v>
       </c>
       <c r="B272" t="str">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="C272" t="str">
-        <v>175.000 Km</v>
+        <v>142.000 Km</v>
       </c>
       <c r="D272" t="str">
-        <v>Chía - Cundinamarca</v>
+        <v>Teusaquillo - Bogotá D.C.</v>
       </c>
       <c r="E272" t="str">
-        <v>83.000.000</v>
+        <v>87.900.000</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>Subaru Xv Cvt</v>
+        <v>Subaru Impreza 1.5r Awd Gh</v>
       </c>
       <c r="B273" t="str">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="C273" t="str">
-        <v>35.000 Km</v>
+        <v>156.000 Km</v>
       </c>
       <c r="D273" t="str">
-        <v>Kennedy - Bogotá D.C.</v>
+        <v>Pereira - Risaralda</v>
       </c>
       <c r="E273" t="str">
-        <v>66.000.000</v>
+        <v>29.000.000</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>Subaru Forester 2.5 Awd Xs</v>
+        <v>Subaru Forester 2.0 Xs Premium</v>
       </c>
       <c r="B274" t="str">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C274" t="str">
         <v>88.000 Km</v>
       </c>
       <c r="D274" t="str">
-        <v>Martires - Bogotá D.C.</v>
+        <v>Tuluá - Valle Del Cauca</v>
       </c>
       <c r="E274" t="str">
-        <v>37.000.000</v>
+        <v>53.000.000</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>Subaru Forester 2.0 Mt</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B275" t="str">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="C275" t="str">
-        <v>230.000 Km</v>
+        <v>71.000 Km</v>
       </c>
       <c r="D275" t="str">
-        <v>Teusaquillo - Bogotá D.C.</v>
+        <v>La Candelaria - Bogotá D.C.</v>
       </c>
       <c r="E275" t="str">
-        <v>87.900.000</v>
+        <v>105.000.000</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>Subaru Impreza 1.5r Awd Gh</v>
+        <v>Subaru Outback 3.6r Premium</v>
       </c>
       <c r="B276" t="str">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C276" t="str">
-        <v>142.000 Km</v>
+        <v>28.000 Km</v>
       </c>
       <c r="D276" t="str">
-        <v>Pereira - Risaralda</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E276" t="str">
-        <v>29.000.000</v>
+        <v>89.900.000</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>Subaru Forester 2.0 Xs Premium</v>
+        <v>Subaru Impreza 2.0 Awd Gg</v>
       </c>
       <c r="B277" t="str">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C277" t="str">
-        <v>156.000 Km</v>
+        <v>208.500 Km</v>
       </c>
       <c r="D277" t="str">
-        <v>Tuluá - Valle Del Cauca</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E277" t="str">
-        <v>53.000.000</v>
+        <v>26.900.000</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>Subaru Legacy 2.5l Gt Awd</v>
+        <v>Subaru Forester 2.0 Xs Limited</v>
       </c>
       <c r="B278" t="str">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C278" t="str">
-        <v>88.000 Km</v>
+        <v>102.000 Km</v>
       </c>
       <c r="D278" t="str">
-        <v>Tenjo - Cundinamarca</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E278" t="str">
-        <v>66.000.000</v>
+        <v>51.900.000</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>Subaru Impreza 2.0 Awd Gg</v>
+        <v>Subaru Xv Simetrical Awd</v>
       </c>
       <c r="B279" t="str">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C279" t="str">
-        <v>100.000 Km</v>
+        <v>152.000 Km</v>
       </c>
       <c r="D279" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E279" t="str">
-        <v>26.900.000</v>
+        <v>45.000.000</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>Subaru Forester 2.0 Xs Limited</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B280" t="str">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="C280" t="str">
-        <v>208.500 Km</v>
+        <v>25.000 Km</v>
       </c>
       <c r="D280" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E280" t="str">
-        <v>51.900.000</v>
+        <v>125.000.000</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>Subaru Xv Simetrical Awd</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B281" t="str">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="C281" t="str">
-        <v>102.000 Km</v>
+        <v>92.000 Km</v>
       </c>
       <c r="D281" t="str">
-        <v>Barrios Unidos - Bogotá D.C.</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E281" t="str">
-        <v>45.000.000</v>
+        <v>75.000.000</v>
       </c>
     </row>
     <row r="282">
@@ -5178,514 +5184,480 @@
         <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B282" t="str">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="C282" t="str">
-        <v>152.000 Km</v>
+        <v>40.000 Km</v>
       </c>
       <c r="D282" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E282" t="str">
-        <v>75.000.000</v>
+        <v>113.500.000</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Wrx Wrx 2.4</v>
       </c>
       <c r="B283" t="str">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C283" t="str">
-        <v>92.000 Km</v>
+        <v>896 Km</v>
       </c>
       <c r="D283" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E283" t="str">
-        <v>113.500.000</v>
+        <v>245.000.000</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>Subaru Wrx Wrx 2.4</v>
+        <v>Subaru Forester 2.0 Mecánica</v>
       </c>
       <c r="B284" t="str">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C284" t="str">
-        <v>40.000 Km</v>
+        <v>56.000 Km</v>
       </c>
       <c r="D284" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>La Candelaria - Bogotá D.C.</v>
       </c>
       <c r="E284" t="str">
-        <v>245.000.000</v>
+        <v>92.000.000</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>Subaru Forester 2.0 Mecánica</v>
+        <v>Subaru Impreza 2.0r Awd Gh</v>
       </c>
       <c r="B285" t="str">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="C285" t="str">
-        <v>896 Km</v>
+        <v>160.000 Km</v>
       </c>
       <c r="D285" t="str">
-        <v>La Candelaria - Bogotá D.C.</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E285" t="str">
-        <v>92.000.000</v>
+        <v>39.500.000</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Forester 2.0 Awd X</v>
       </c>
       <c r="B286" t="str">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="C286" t="str">
-        <v>56.000 Km</v>
+        <v>175.000 Km</v>
       </c>
       <c r="D286" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Barrios Unidos - Bogotá D.C.</v>
       </c>
       <c r="E286" t="str">
-        <v>65.000.000</v>
+        <v>35.000.000</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>Subaru Impreza 2.0r Awd Gh</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B287" t="str">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C287" t="str">
-        <v>83.985 Km</v>
+        <v>40.000 Km</v>
       </c>
       <c r="D287" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E287" t="str">
-        <v>39.500.000</v>
+        <v>102.000.000</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.5 Xt</v>
       </c>
       <c r="B288" t="str">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C288" t="str">
-        <v>160.000 Km</v>
+        <v>131.000 Km</v>
       </c>
       <c r="D288" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Cartago - Valle Del Cauca</v>
       </c>
       <c r="E288" t="str">
-        <v>102.000.000</v>
+        <v>53.000.000</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>Subaru Forester 2.5 Xt</v>
+        <v>Subaru Impreza 1.5r Awd Gh</v>
       </c>
       <c r="B289" t="str">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="C289" t="str">
-        <v>40.000 Km</v>
+        <v>130.000 Km</v>
       </c>
       <c r="D289" t="str">
-        <v>Cartago - Valle Del Cauca</v>
+        <v>Tunja - Boyaca</v>
       </c>
       <c r="E289" t="str">
-        <v>53.000.000</v>
+        <v>34.000.000</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>Subaru Impreza 1.5r Awd Gh</v>
+        <v>Subaru Xv 4x4 Mecanico</v>
       </c>
       <c r="B290" t="str">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C290" t="str">
-        <v>131.000 Km</v>
+        <v>142.000 Km</v>
       </c>
       <c r="D290" t="str">
-        <v>Tunja - Boyaca</v>
+        <v>Bucaramanga - Santander</v>
       </c>
       <c r="E290" t="str">
-        <v>34.000.000</v>
+        <v>58.000.000</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>Subaru Xv 4x4 Mecanico</v>
+        <v>Subaru Forester 2.0 Hibrida</v>
       </c>
       <c r="B291" t="str">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="C291" t="str">
-        <v>130.000 Km</v>
+        <v>51.000 Km</v>
       </c>
       <c r="D291" t="str">
-        <v>Bucaramanga - Santander</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E291" t="str">
-        <v>58.000.000</v>
+        <v>158.000.000</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>Subaru Forester 2.0 Hibrida</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B292" t="str">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C292" t="str">
-        <v>142.000 Km</v>
+        <v>201.000 Km</v>
       </c>
       <c r="D292" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Puente Aranda - Bogotá D.C.</v>
       </c>
       <c r="E292" t="str">
-        <v>158.000.000</v>
+        <v>41.000.000</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Impreza 1.5r Awd Gh</v>
       </c>
       <c r="B293" t="str">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="C293" t="str">
-        <v>51.000 Km</v>
+        <v>103.000 Km</v>
       </c>
       <c r="D293" t="str">
-        <v>Puente Aranda - Bogotá D.C.</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E293" t="str">
-        <v>41.000.000</v>
+        <v>34.500.000</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>Subaru Impreza 1.5r Awd Gh</v>
+        <v>Subaru Forester 2.01 - L Cvt</v>
       </c>
       <c r="B294" t="str">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="C294" t="str">
-        <v>201.000 Km</v>
+        <v>60.485 Km</v>
       </c>
       <c r="D294" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Pereira - Risaralda</v>
       </c>
       <c r="E294" t="str">
-        <v>34.500.000</v>
+        <v>95.000.000</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>Subaru Forester 2.01 - L Cvt</v>
+        <v>Subaru Impreza 1.6 Ts Awd Gd</v>
       </c>
       <c r="B295" t="str">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C295" t="str">
-        <v>103.000 Km</v>
+        <v>124.000 Km</v>
       </c>
       <c r="D295" t="str">
-        <v>Pereira - Risaralda</v>
+        <v>Villa De Leiva - Boyaca</v>
       </c>
       <c r="E295" t="str">
-        <v>95.000.000</v>
+        <v>33.000.000</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Impreza Station Wagon 4x2</v>
       </c>
       <c r="B296" t="str">
-        <v>2019</v>
+        <v>1998</v>
       </c>
       <c r="C296" t="str">
-        <v>60.485 Km</v>
+        <v>188.000 Km</v>
       </c>
       <c r="D296" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E296" t="str">
-        <v>99.000.000</v>
+        <v>16.500.000</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>Subaru Impreza Station Wagon 4x2</v>
+        <v>Subaru Evoltis Limited</v>
       </c>
       <c r="B297" t="str">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C297" t="str">
-        <v>30.000 Km</v>
+        <v>33.000 Km</v>
       </c>
       <c r="D297" t="str">
-        <v>Suba - Bogotá D.C.</v>
+        <v>Villavicencio - Meta</v>
       </c>
       <c r="E297" t="str">
-        <v>16.500.000</v>
+        <v>172.000.000</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>Subaru Forester 2.0 Awd X</v>
+        <v>Subaru Forester 2.5 Cvt Sport</v>
       </c>
       <c r="B298" t="str">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="C298" t="str">
-        <v>188.000 Km</v>
+        <v>64.000 Km</v>
       </c>
       <c r="D298" t="str">
-        <v>Barrios Unidos - Bogotá D.C.</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E298" t="str">
-        <v>36.000.000</v>
+        <v>103.000.000</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>Subaru Forester 2.0 Awd X</v>
+        <v>Subaru Tribeca 3.6l Awd</v>
       </c>
       <c r="B299" t="str">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C299" t="str">
-        <v>175.920 Km</v>
+        <v>112.000 Km</v>
       </c>
       <c r="D299" t="str">
-        <v>Medellín - Antioquia</v>
+        <v>Chapinero - Bogotá D.C.</v>
       </c>
       <c r="E299" t="str">
-        <v>22.300.000</v>
+        <v>63.000.000</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>Subaru Evoltis Limited</v>
+        <v>Subaru Forester 2.0 Awd X</v>
       </c>
       <c r="B300" t="str">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="C300" t="str">
-        <v>294.000 Km</v>
+        <v>182.000 Km</v>
       </c>
       <c r="D300" t="str">
-        <v>Villavicencio - Meta</v>
+        <v>Kennedy - Bogotá D.C.</v>
       </c>
       <c r="E300" t="str">
-        <v>172.000.000</v>
+        <v>42.900.000</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>Subaru Impreza 1.6 Awd Gg</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B301" t="str">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="C301" t="str">
-        <v>33.000 Km</v>
+        <v>36.480 Km</v>
       </c>
       <c r="D301" t="str">
-        <v>Tunja - Boyaca</v>
+        <v>Teusaquillo - Bogotá D.C.</v>
       </c>
       <c r="E301" t="str">
-        <v>28.500.000</v>
+        <v>75.000.000</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>Subaru Forester 2.5 Cvt Sport</v>
+        <v>Subaru Impreza 1.6 Awd Gd</v>
       </c>
       <c r="B302" t="str">
         <v>2007</v>
       </c>
       <c r="C302" t="str">
-        <v>160.000 Km</v>
+        <v>130.000 Km</v>
       </c>
       <c r="D302" t="str">
         <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E302" t="str">
-        <v>103.000.000</v>
+        <v>35.000.000</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>Subaru Tribeca 3.6l Awd</v>
+        <v>Subaru Forester 2.0 X</v>
       </c>
       <c r="B303" t="str">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C303" t="str">
-        <v>64.000 Km</v>
+        <v>200.000 Km</v>
       </c>
       <c r="D303" t="str">
-        <v>Chapinero - Bogotá D.C.</v>
+        <v>La Vega - Cundinamarca</v>
       </c>
       <c r="E303" t="str">
-        <v>63.000.000</v>
+        <v>48.000.000</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>Subaru Forester 2.0 Awd X</v>
+        <v>Subaru Xv 2.0i</v>
       </c>
       <c r="B304" t="str">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C304" t="str">
-        <v>112.000 Km</v>
+        <v>48.000 Km</v>
       </c>
       <c r="D304" t="str">
-        <v>Kennedy - Bogotá D.C.</v>
+        <v>Cartago - Valle Del Cauca</v>
       </c>
       <c r="E304" t="str">
-        <v>43.000.000</v>
+        <v>86.500.000</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B305" t="str">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="C305" t="str">
-        <v>182.000 Km</v>
+        <v>88.000 Km</v>
       </c>
       <c r="D305" t="str">
-        <v>Cali - Valle Del Cauca</v>
+        <v>Manizales - Caldas</v>
       </c>
       <c r="E305" t="str">
-        <v>101.000.000</v>
+        <v>95.000.000</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>Subaru Forester 2.0 X</v>
+        <v>Subaru Forester 2.0 Cvt Premium</v>
       </c>
       <c r="B306" t="str">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C306" t="str">
-        <v>22.000 Km</v>
+        <v>39.000 Km</v>
       </c>
       <c r="D306" t="str">
-        <v>La Vega - Cundinamarca</v>
+        <v>La Calera - Cundinamarca</v>
       </c>
       <c r="E306" t="str">
-        <v>48.000.000</v>
+        <v>86.700.000</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>Subaru Xv 2.0i</v>
+        <v>Subaru Forester 2.5 Awd Xt</v>
       </c>
       <c r="B307" t="str">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C307" t="str">
-        <v>200.000 Km</v>
+        <v>187.000 Km</v>
       </c>
       <c r="D307" t="str">
-        <v>Cartago - Valle Del Cauca</v>
+        <v>Usaquén - Bogotá D.C.</v>
       </c>
       <c r="E307" t="str">
-        <v>86.500.000</v>
+        <v>38.000.000</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Leone Glf 1.8 4wd 4x4 A/c</v>
       </c>
       <c r="B308" t="str">
-        <v>2018</v>
+        <v>1982</v>
       </c>
       <c r="C308" t="str">
-        <v>48.000 Km</v>
+        <v>7.777.777 Km</v>
       </c>
       <c r="D308" t="str">
-        <v>Manizales - Caldas</v>
+        <v>Suba - Bogotá D.C.</v>
       </c>
       <c r="E308" t="str">
-        <v>95.000.000</v>
+        <v>35.000.000</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>Subaru Forester 2.0 Cvt Premium</v>
+        <v>Subaru Tribeca 3.6l Awd</v>
       </c>
       <c r="B309" t="str">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="C309" t="str">
-        <v>88.000 Km</v>
+        <v>180.000 Km</v>
       </c>
       <c r="D309" t="str">
-        <v>La Calera - Cundinamarca</v>
+        <v>Cali - Valle Del Cauca</v>
       </c>
       <c r="E309" t="str">
-        <v>86.700.000</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="str">
-        <v>Subaru Leone Glf 1.8 4wd 4x4 A/c</v>
-      </c>
-      <c r="B310" t="str">
-        <v>2017</v>
-      </c>
-      <c r="C310" t="str">
-        <v>39.000 Km</v>
-      </c>
-      <c r="D310" t="str">
-        <v>Suba - Bogotá D.C.</v>
-      </c>
-      <c r="E310" t="str">
-        <v>35.000.000</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="str">
-        <v>Subaru Vivio 0.6 Lxi</v>
-      </c>
-      <c r="B311" t="str">
-        <v>1982</v>
-      </c>
-      <c r="C311" t="str">
-        <v>7.777.777 Km</v>
-      </c>
-      <c r="D311" t="str">
-        <v>Usaquén - Bogotá D.C.</v>
-      </c>
-      <c r="E311" t="str">
-        <v>14.000.000</v>
+        <v>3.000.000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E311"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E309"/>
   </ignoredErrors>
 </worksheet>
 </file>